--- a/excel/06.xlsx
+++ b/excel/06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yabuki\Dropbox\it-chiba\データ解析入門\analysis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F56653F-348C-4F29-9DF8-943F502B6433}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECE2EB6-DEDF-46CA-99A8-5016FA5F019E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14110" yWindow="2380" windowWidth="18200" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="3950" windowWidth="15300" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="89">
   <si>
     <t>今日やること</t>
   </si>
@@ -1325,6 +1325,40 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>タシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←下限値はB146，上限値はA132．（コピペだと，数値計算の誤差が蓄積し，ちょうど最大値にならない危険がある．）</t>
+    <rPh sb="1" eb="3">
+      <t>カゲン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ゴサ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>チクセキ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>キケン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1689,7 +1723,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ALL217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -2409,475 +2445,475 @@
     <row r="106" spans="1:1000">
       <c r="A106">
         <f ca="1">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B106">
         <f t="shared" ref="B106:BM106" ca="1" si="1">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G106">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I106">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="J106">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="K106">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="L106">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="M106">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="N106">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="O106">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="P106">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="Q106">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="R106">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="S106">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="T106">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="U106">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="V106">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="W106">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="X106">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y106">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Z106">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AA106">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="AB106">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AC106">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="AD106">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AE106">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="AF106">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG106">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="AH106">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="AI106">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="AJ106">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AK106">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="AL106">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AM106">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="AN106">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="AO106">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AP106">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AQ106">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AR106">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AS106">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AT106">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="AU106">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AV106">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AW106">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="AX106">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AY106">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="AZ106">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="BA106">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="BB106">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="BC106">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="BD106">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="BE106">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="BF106">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="BG106">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="BH106">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="BI106">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="BJ106">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="BK106">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="BL106">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="BM106">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="BN106">
         <f t="shared" ref="BN106:DY106" ca="1" si="2">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BO106">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BP106">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="BQ106">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="BR106">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BS106">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BT106">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="BU106">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="BV106">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="BW106">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="BX106">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="BY106">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="BZ106">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="CA106">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="CB106">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="CC106">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="CD106">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="CE106">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="CF106">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="CG106">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="CH106">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="CI106">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="CJ106">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="CK106">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="CL106">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="CM106">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="CN106">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="CO106">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="CP106">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CQ106">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="CR106">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="CS106">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="CT106">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="CU106">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="CV106">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="CW106">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="CX106">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="CY106">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="CZ106">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="DA106">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="DB106">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="DC106">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="DD106">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="DE106">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="DF106">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="DG106">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="DH106">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="DI106">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="DJ106">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="DK106">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="DL106">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="DM106">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="DN106">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="DO106">
         <f t="shared" ca="1" si="2"/>
@@ -2885,139 +2921,139 @@
       </c>
       <c r="DP106">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="DQ106">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="DR106">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="DS106">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="DT106">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="DU106">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="DV106">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="DW106">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="DX106">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="DY106">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="DZ106">
         <f t="shared" ref="DZ106:GK106" ca="1" si="3">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="EA106">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="EB106">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="EC106">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="ED106">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="EE106">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="EF106">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="EG106">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="EH106">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="EI106">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="EJ106">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="EK106">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="EL106">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="EM106">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="EN106">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="EO106">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="EP106">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="EQ106">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="ER106">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="ES106">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="ET106">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="EU106">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="EV106">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="EW106">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EX106">
         <f t="shared" ca="1" si="3"/>
@@ -3025,123 +3061,123 @@
       </c>
       <c r="EY106">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="EZ106">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="FA106">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="FB106">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="FC106">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="FD106">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="FE106">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="FF106">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="FG106">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="FH106">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="FI106">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="FJ106">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="FK106">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="FL106">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="FM106">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="FN106">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="FO106">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="FP106">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="FQ106">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="FR106">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="FS106">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="FT106">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="FU106">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="FV106">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="FW106">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="FX106">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="FY106">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="FZ106">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="GA106">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="GB106">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="GC106">
         <f>INT($B$7/100000)</f>
@@ -3161,139 +3197,139 @@
       </c>
       <c r="GG106">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="GH106">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="GI106">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="GJ106">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="GK106">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="GL106">
         <f t="shared" ref="GL106:IW106" ca="1" si="4">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="GM106">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="GN106">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="GO106">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="GP106">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="GQ106">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="GR106">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="GS106">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="GT106">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="GU106">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="GV106">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="GW106">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="GX106">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="GY106">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="GZ106">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="HA106">
         <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="HB106">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="HC106">
         <f t="shared" ca="1" si="4"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="HD106">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="HE106">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="HF106">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="HG106">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="HH106">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="HI106">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="HJ106">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="HK106">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="HL106">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="HM106">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="HN106">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="HO106">
         <f t="shared" ca="1" si="4"/>
@@ -3301,59 +3337,59 @@
       </c>
       <c r="HP106">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="HQ106">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="HR106">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="HS106">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="HT106">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="HU106">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="HV106">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="HW106">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="HX106">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="HY106">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="HZ106">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="IA106">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="IB106">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="IC106">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="ID106">
         <f t="shared" ca="1" si="4"/>
@@ -3361,23 +3397,23 @@
       </c>
       <c r="IE106">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="IF106">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="IG106">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="IH106">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="II106">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="IJ106">
         <f t="shared" ca="1" si="4"/>
@@ -3385,35 +3421,35 @@
       </c>
       <c r="IK106">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="IL106">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="IM106">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="IN106">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="IO106">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="IP106">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="IQ106">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="IR106">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="IS106">
         <f t="shared" ca="1" si="4"/>
@@ -3421,43 +3457,43 @@
       </c>
       <c r="IT106">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="IU106">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="IV106">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="IW106">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="IX106">
         <f t="shared" ref="IX106:LI106" ca="1" si="5">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="IY106">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="IZ106">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="JA106">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="JB106">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="JC106">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="JD106">
         <f t="shared" ca="1" si="5"/>
@@ -3465,615 +3501,615 @@
       </c>
       <c r="JE106">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="JF106">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="JG106">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="JH106">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="JI106">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="JJ106">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="JK106">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="JL106">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="JM106">
         <f t="shared" ca="1" si="5"/>
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="JN106">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="JO106">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="JP106">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="JQ106">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="JR106">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="JS106">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="JT106">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="JU106">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="JV106">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="JW106">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="JX106">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="JY106">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="JZ106">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="KA106">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="KB106">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="KC106">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="KD106">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="KE106">
         <f t="shared" ca="1" si="5"/>
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="KF106">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="KG106">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="KH106">
         <f t="shared" ca="1" si="5"/>
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="KI106">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="KJ106">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="KK106">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="KL106">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="KM106">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="KN106">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="KO106">
         <f t="shared" ca="1" si="5"/>
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="KP106">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="KQ106">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="KR106">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="KS106">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="KT106">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="KU106">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="KV106">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="KW106">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="KX106">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="KY106">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="KZ106">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="LA106">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="LB106">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="LC106">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="LD106">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="LE106">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="LF106">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="LG106">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="LH106">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="LI106">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="LJ106">
         <f t="shared" ref="LJ106:NU106" ca="1" si="6">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="LK106">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="LL106">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="LM106">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="LN106">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="LO106">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="LP106">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="LQ106">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="LR106">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="LS106">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="LT106">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="LU106">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="LV106">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="LW106">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="LX106">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="LY106">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="LZ106">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="MA106">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="MB106">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="MC106">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="MD106">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="ME106">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="MF106">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="MG106">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="MH106">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="MI106">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="MJ106">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="MK106">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="ML106">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="MM106">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="MN106">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="MO106">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="MP106">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="MQ106">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="MR106">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="MS106">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="MT106">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="MU106">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="MV106">
         <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="MW106">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="MX106">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="MY106">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="MZ106">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="NA106">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="NB106">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="NC106">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="ND106">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="NE106">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="NF106">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="NG106">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="NH106">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="NI106">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="NJ106">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="NK106">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="NL106">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="NM106">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="NN106">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="NO106">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="NP106">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="NQ106">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="NR106">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="NS106">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="NT106">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="NU106">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="NV106">
         <f t="shared" ref="NV106:QG106" ca="1" si="7">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="NW106">
         <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="NX106">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="NY106">
         <f t="shared" ca="1" si="7"/>
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="NZ106">
         <f t="shared" ca="1" si="7"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="OA106">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="OB106">
         <f t="shared" ca="1" si="7"/>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="OC106">
         <f t="shared" ca="1" si="7"/>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="OD106">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="OE106">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="OF106">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="OG106">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="OH106">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="OI106">
         <f t="shared" ca="1" si="7"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="OJ106">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="OK106">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="OL106">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="OM106">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="ON106">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="OO106">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="OP106">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="OQ106">
         <f t="shared" ca="1" si="7"/>
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="OR106">
         <f t="shared" ca="1" si="7"/>
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="OS106">
         <f t="shared" ca="1" si="7"/>
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="OT106">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="OU106">
         <f t="shared" ca="1" si="7"/>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="OV106">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="OW106">
         <f t="shared" ca="1" si="7"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="OX106">
         <f t="shared" ca="1" si="7"/>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="OY106">
         <f t="shared" ca="1" si="7"/>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="OZ106">
         <f t="shared" ca="1" si="7"/>
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="PA106">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="PB106">
         <f t="shared" ca="1" si="7"/>
@@ -4081,151 +4117,151 @@
       </c>
       <c r="PC106">
         <f t="shared" ca="1" si="7"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="PD106">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="PE106">
         <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="PF106">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="PG106">
         <f t="shared" ca="1" si="7"/>
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="PH106">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="PI106">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="PJ106">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="PK106">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="PL106">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="PM106">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="PN106">
         <f t="shared" ca="1" si="7"/>
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="PO106">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="PP106">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="PQ106">
         <f t="shared" ca="1" si="7"/>
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="PR106">
         <f t="shared" ca="1" si="7"/>
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="PS106">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="PT106">
         <f t="shared" ca="1" si="7"/>
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="PU106">
         <f t="shared" ca="1" si="7"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="PV106">
         <f t="shared" ca="1" si="7"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="PW106">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="PX106">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="PY106">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="PZ106">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="QA106">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="QB106">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="QC106">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="QD106">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="QE106">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="QF106">
         <f t="shared" ca="1" si="7"/>
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="QG106">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="QH106">
         <f t="shared" ref="QH106:SS106" ca="1" si="8">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="QI106">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="QJ106">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="QK106">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="QL106">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="QM106">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="QN106">
         <f t="shared" ca="1" si="8"/>
@@ -4233,307 +4269,307 @@
       </c>
       <c r="QO106">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="QP106">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="QQ106">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="QR106">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="QS106">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="QT106">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="QU106">
         <f t="shared" ca="1" si="8"/>
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="QV106">
         <f t="shared" ca="1" si="8"/>
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="QW106">
         <f t="shared" ca="1" si="8"/>
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="QX106">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="QY106">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="QZ106">
         <f t="shared" ca="1" si="8"/>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="RA106">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="RB106">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="RC106">
         <f t="shared" ca="1" si="8"/>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="RD106">
         <f t="shared" ca="1" si="8"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="RE106">
         <f t="shared" ca="1" si="8"/>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="RF106">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="RG106">
         <f t="shared" ca="1" si="8"/>
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="RH106">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="RI106">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="RJ106">
         <f t="shared" ca="1" si="8"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="RK106">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="RL106">
         <f t="shared" ca="1" si="8"/>
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="RM106">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="RN106">
         <f t="shared" ca="1" si="8"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="RO106">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="RP106">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="RQ106">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="RR106">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="RS106">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="RT106">
         <f t="shared" ca="1" si="8"/>
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="RU106">
         <f t="shared" ca="1" si="8"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="RV106">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="RW106">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="RX106">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="RY106">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="RZ106">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="SA106">
         <f t="shared" ca="1" si="8"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="SB106">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="SC106">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="SD106">
         <f t="shared" ca="1" si="8"/>
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="SE106">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="SF106">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="SG106">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="SH106">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="SI106">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="SJ106">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="SK106">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="SL106">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="SM106">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="SN106">
         <f t="shared" ca="1" si="8"/>
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="SO106">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="SP106">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="SQ106">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="SR106">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="SS106">
         <f t="shared" ca="1" si="8"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="ST106">
         <f t="shared" ref="ST106:VE106" ca="1" si="9">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="SU106">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="SV106">
         <f t="shared" ca="1" si="9"/>
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="SW106">
         <f t="shared" ca="1" si="9"/>
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="SX106">
         <f t="shared" ca="1" si="9"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="SY106">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="SZ106">
         <f t="shared" ca="1" si="9"/>
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="TA106">
         <f t="shared" ca="1" si="9"/>
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="TB106">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="TC106">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="TD106">
         <f t="shared" ca="1" si="9"/>
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="TE106">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="TF106">
         <f t="shared" ca="1" si="9"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="TG106">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="TH106">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="TI106">
         <f t="shared" ca="1" si="9"/>
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="TJ106">
         <f t="shared" ca="1" si="9"/>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="TK106">
         <f t="shared" ca="1" si="9"/>
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="TL106">
         <f t="shared" ca="1" si="9"/>
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="TM106">
         <f t="shared" ca="1" si="9"/>
@@ -4541,75 +4577,75 @@
       </c>
       <c r="TN106">
         <f t="shared" ca="1" si="9"/>
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="TO106">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="TP106">
         <f t="shared" ca="1" si="9"/>
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="TQ106">
         <f t="shared" ca="1" si="9"/>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="TR106">
         <f t="shared" ca="1" si="9"/>
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="TS106">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="TT106">
         <f t="shared" ca="1" si="9"/>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="TU106">
         <f t="shared" ca="1" si="9"/>
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="TV106">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="TW106">
         <f t="shared" ca="1" si="9"/>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="TX106">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="TY106">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="TZ106">
         <f t="shared" ca="1" si="9"/>
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="UA106">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="UB106">
         <f t="shared" ca="1" si="9"/>
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="UC106">
         <f t="shared" ca="1" si="9"/>
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="UD106">
         <f t="shared" ca="1" si="9"/>
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="UE106">
         <f t="shared" ca="1" si="9"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="UF106">
         <f t="shared" ca="1" si="9"/>
@@ -4617,203 +4653,203 @@
       </c>
       <c r="UG106">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="UH106">
         <f t="shared" ca="1" si="9"/>
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="UI106">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="UJ106">
         <f t="shared" ca="1" si="9"/>
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="UK106">
         <f t="shared" ca="1" si="9"/>
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="UL106">
         <f t="shared" ca="1" si="9"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="UM106">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="UN106">
         <f t="shared" ca="1" si="9"/>
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="UO106">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="UP106">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="UQ106">
         <f t="shared" ca="1" si="9"/>
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="UR106">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="US106">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="UT106">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="UU106">
         <f t="shared" ca="1" si="9"/>
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="UV106">
         <f t="shared" ca="1" si="9"/>
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="UW106">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="UX106">
         <f t="shared" ca="1" si="9"/>
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="UY106">
         <f t="shared" ca="1" si="9"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="UZ106">
         <f t="shared" ca="1" si="9"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="VA106">
         <f t="shared" ca="1" si="9"/>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="VB106">
         <f t="shared" ca="1" si="9"/>
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="VC106">
         <f t="shared" ca="1" si="9"/>
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="VD106">
         <f t="shared" ca="1" si="9"/>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="VE106">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="VF106">
         <f t="shared" ref="VF106:XQ106" ca="1" si="10">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="VG106">
         <f t="shared" ca="1" si="10"/>
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="VH106">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="VI106">
         <f t="shared" ca="1" si="10"/>
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="VJ106">
         <f t="shared" ca="1" si="10"/>
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="VK106">
         <f t="shared" ca="1" si="10"/>
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="VL106">
         <f t="shared" ca="1" si="10"/>
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="VM106">
         <f t="shared" ca="1" si="10"/>
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="VN106">
         <f t="shared" ca="1" si="10"/>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="VO106">
         <f t="shared" ca="1" si="10"/>
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="VP106">
         <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="VQ106">
         <f t="shared" ca="1" si="10"/>
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="VR106">
         <f t="shared" ca="1" si="10"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="VS106">
         <f t="shared" ca="1" si="10"/>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="VT106">
         <f t="shared" ca="1" si="10"/>
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="VU106">
         <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="VV106">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="VW106">
         <f t="shared" ca="1" si="10"/>
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="VX106">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="VY106">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="VZ106">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="WA106">
         <f t="shared" ca="1" si="10"/>
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="WB106">
         <f t="shared" ca="1" si="10"/>
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="WC106">
         <f t="shared" ca="1" si="10"/>
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="WD106">
         <f t="shared" ca="1" si="10"/>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="WE106">
         <f t="shared" ca="1" si="10"/>
@@ -4821,59 +4857,59 @@
       </c>
       <c r="WF106">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="WG106">
         <f t="shared" ca="1" si="10"/>
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="WH106">
         <f t="shared" ca="1" si="10"/>
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="WI106">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="WJ106">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="WK106">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="WL106">
         <f t="shared" ca="1" si="10"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="WM106">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="WN106">
         <f t="shared" ca="1" si="10"/>
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="WO106">
         <f t="shared" ca="1" si="10"/>
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="WP106">
         <f t="shared" ca="1" si="10"/>
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="WQ106">
         <f t="shared" ca="1" si="10"/>
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="WR106">
         <f t="shared" ca="1" si="10"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="WS106">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="WT106">
         <f t="shared" ca="1" si="10"/>
@@ -4881,339 +4917,339 @@
       </c>
       <c r="WU106">
         <f t="shared" ca="1" si="10"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="WV106">
         <f t="shared" ca="1" si="10"/>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="WW106">
         <f t="shared" ca="1" si="10"/>
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="WX106">
         <f t="shared" ca="1" si="10"/>
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="WY106">
         <f t="shared" ca="1" si="10"/>
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="WZ106">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="XA106">
         <f t="shared" ca="1" si="10"/>
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="XB106">
         <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="XC106">
         <f t="shared" ca="1" si="10"/>
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="XD106">
         <f t="shared" ca="1" si="10"/>
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="XE106">
         <f t="shared" ca="1" si="10"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="XF106">
         <f t="shared" ca="1" si="10"/>
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="XG106">
         <f t="shared" ca="1" si="10"/>
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="XH106">
         <f t="shared" ca="1" si="10"/>
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="XI106">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="XJ106">
         <f t="shared" ca="1" si="10"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="XK106">
         <f t="shared" ca="1" si="10"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="XL106">
         <f t="shared" ca="1" si="10"/>
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="XM106">
         <f t="shared" ca="1" si="10"/>
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="XN106">
         <f t="shared" ca="1" si="10"/>
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="XO106">
         <f t="shared" ca="1" si="10"/>
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="XP106">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="XQ106">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="XR106">
         <f t="shared" ref="XR106:AAC106" ca="1" si="11">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="XS106">
         <f t="shared" ca="1" si="11"/>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="XT106">
         <f t="shared" ca="1" si="11"/>
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="XU106">
         <f t="shared" ca="1" si="11"/>
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="XV106">
         <f t="shared" ca="1" si="11"/>
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="XW106">
         <f t="shared" ca="1" si="11"/>
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="XX106">
         <f t="shared" ca="1" si="11"/>
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="XY106">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="XZ106">
         <f t="shared" ca="1" si="11"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="YA106">
         <f t="shared" ca="1" si="11"/>
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="YB106">
         <f t="shared" ca="1" si="11"/>
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="YC106">
         <f t="shared" ca="1" si="11"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="YD106">
         <f t="shared" ca="1" si="11"/>
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="YE106">
         <f t="shared" ca="1" si="11"/>
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="YF106">
         <f t="shared" ca="1" si="11"/>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="YG106">
         <f t="shared" ca="1" si="11"/>
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="YH106">
         <f t="shared" ca="1" si="11"/>
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="YI106">
         <f t="shared" ca="1" si="11"/>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="YJ106">
         <f t="shared" ca="1" si="11"/>
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="YK106">
         <f t="shared" ca="1" si="11"/>
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="YL106">
         <f t="shared" ca="1" si="11"/>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="YM106">
         <f t="shared" ca="1" si="11"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="YN106">
         <f t="shared" ca="1" si="11"/>
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="YO106">
         <f t="shared" ca="1" si="11"/>
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="YP106">
         <f t="shared" ca="1" si="11"/>
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="YQ106">
         <f t="shared" ca="1" si="11"/>
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="YR106">
         <f t="shared" ca="1" si="11"/>
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="YS106">
         <f t="shared" ca="1" si="11"/>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="YT106">
         <f t="shared" ca="1" si="11"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="YU106">
         <f t="shared" ca="1" si="11"/>
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="YV106">
         <f t="shared" ca="1" si="11"/>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="YW106">
         <f t="shared" ca="1" si="11"/>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="YX106">
         <f t="shared" ca="1" si="11"/>
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="YY106">
         <f t="shared" ca="1" si="11"/>
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="YZ106">
         <f t="shared" ca="1" si="11"/>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="ZA106">
         <f t="shared" ca="1" si="11"/>
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="ZB106">
         <f t="shared" ca="1" si="11"/>
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="ZC106">
         <f t="shared" ca="1" si="11"/>
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="ZD106">
         <f t="shared" ca="1" si="11"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="ZE106">
         <f t="shared" ca="1" si="11"/>
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="ZF106">
         <f t="shared" ca="1" si="11"/>
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="ZG106">
         <f t="shared" ca="1" si="11"/>
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="ZH106">
         <f t="shared" ca="1" si="11"/>
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="ZI106">
         <f t="shared" ca="1" si="11"/>
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="ZJ106">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="ZK106">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="ZL106">
         <f t="shared" ca="1" si="11"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="ZM106">
         <f t="shared" ca="1" si="11"/>
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="ZN106">
         <f t="shared" ca="1" si="11"/>
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="ZO106">
         <f t="shared" ca="1" si="11"/>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="ZP106">
         <f t="shared" ca="1" si="11"/>
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="ZQ106">
         <f t="shared" ca="1" si="11"/>
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="ZR106">
         <f t="shared" ca="1" si="11"/>
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="ZS106">
         <f t="shared" ca="1" si="11"/>
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="ZT106">
         <f t="shared" ca="1" si="11"/>
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="ZU106">
         <f t="shared" ca="1" si="11"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="ZV106">
         <f t="shared" ca="1" si="11"/>
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="ZW106">
         <f t="shared" ca="1" si="11"/>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="ZX106">
         <f t="shared" ca="1" si="11"/>
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="ZY106">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="ZZ106">
         <f t="shared" ca="1" si="11"/>
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="AAA106">
         <f t="shared" ca="1" si="11"/>
@@ -5221,583 +5257,583 @@
       </c>
       <c r="AAB106">
         <f t="shared" ca="1" si="11"/>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AAC106">
         <f t="shared" ca="1" si="11"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AAD106">
         <f t="shared" ref="AAD106:ACO106" ca="1" si="12">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="AAE106">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="AAF106">
         <f t="shared" ca="1" si="12"/>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="AAG106">
         <f t="shared" ca="1" si="12"/>
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="AAH106">
         <f t="shared" ca="1" si="12"/>
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="AAI106">
         <f t="shared" ca="1" si="12"/>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AAJ106">
         <f t="shared" ca="1" si="12"/>
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="AAK106">
         <f t="shared" ca="1" si="12"/>
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AAL106">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="AAM106">
         <f t="shared" ca="1" si="12"/>
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="AAN106">
         <f t="shared" ca="1" si="12"/>
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="AAO106">
         <f t="shared" ca="1" si="12"/>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AAP106">
         <f t="shared" ca="1" si="12"/>
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AAQ106">
         <f t="shared" ca="1" si="12"/>
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AAR106">
         <f t="shared" ca="1" si="12"/>
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="AAS106">
         <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="AAT106">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AAU106">
         <f t="shared" ca="1" si="12"/>
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="AAV106">
         <f t="shared" ca="1" si="12"/>
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AAW106">
         <f t="shared" ca="1" si="12"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AAX106">
         <f t="shared" ca="1" si="12"/>
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="AAY106">
         <f t="shared" ca="1" si="12"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AAZ106">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="ABA106">
         <f t="shared" ca="1" si="12"/>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="ABB106">
         <f t="shared" ca="1" si="12"/>
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="ABC106">
         <f t="shared" ca="1" si="12"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABD106">
         <f t="shared" ca="1" si="12"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="ABE106">
         <f t="shared" ca="1" si="12"/>
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="ABF106">
         <f t="shared" ca="1" si="12"/>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="ABG106">
         <f t="shared" ca="1" si="12"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="ABH106">
         <f t="shared" ca="1" si="12"/>
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="ABI106">
         <f t="shared" ca="1" si="12"/>
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="ABJ106">
         <f t="shared" ca="1" si="12"/>
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="ABK106">
         <f t="shared" ca="1" si="12"/>
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="ABL106">
         <f t="shared" ca="1" si="12"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="ABM106">
         <f t="shared" ca="1" si="12"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="ABN106">
         <f t="shared" ca="1" si="12"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="ABO106">
         <f t="shared" ca="1" si="12"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="ABP106">
         <f t="shared" ca="1" si="12"/>
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="ABQ106">
         <f t="shared" ca="1" si="12"/>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="ABR106">
         <f t="shared" ca="1" si="12"/>
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="ABS106">
         <f t="shared" ca="1" si="12"/>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="ABT106">
         <f t="shared" ca="1" si="12"/>
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="ABU106">
         <f t="shared" ca="1" si="12"/>
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="ABV106">
         <f t="shared" ca="1" si="12"/>
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="ABW106">
         <f t="shared" ca="1" si="12"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="ABX106">
         <f t="shared" ca="1" si="12"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="ABY106">
         <f t="shared" ca="1" si="12"/>
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="ABZ106">
         <f t="shared" ca="1" si="12"/>
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="ACA106">
         <f t="shared" ca="1" si="12"/>
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="ACB106">
         <f t="shared" ca="1" si="12"/>
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="ACC106">
         <f t="shared" ca="1" si="12"/>
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="ACD106">
         <f t="shared" ca="1" si="12"/>
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="ACE106">
         <f t="shared" ca="1" si="12"/>
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="ACF106">
         <f t="shared" ca="1" si="12"/>
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="ACG106">
         <f t="shared" ca="1" si="12"/>
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="ACH106">
         <f t="shared" ca="1" si="12"/>
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="ACI106">
         <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="ACJ106">
         <f t="shared" ca="1" si="12"/>
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="ACK106">
         <f t="shared" ca="1" si="12"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="ACL106">
         <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="ACM106">
         <f t="shared" ca="1" si="12"/>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="ACN106">
         <f t="shared" ca="1" si="12"/>
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="ACO106">
         <f t="shared" ca="1" si="12"/>
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="ACP106">
         <f t="shared" ref="ACP106:AFA106" ca="1" si="13">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="ACQ106">
         <f t="shared" ca="1" si="13"/>
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="ACR106">
         <f t="shared" ca="1" si="13"/>
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="ACS106">
         <f t="shared" ca="1" si="13"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="ACT106">
         <f t="shared" ca="1" si="13"/>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="ACU106">
         <f t="shared" ca="1" si="13"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="ACV106">
         <f t="shared" ca="1" si="13"/>
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="ACW106">
         <f t="shared" ca="1" si="13"/>
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="ACX106">
         <f t="shared" ca="1" si="13"/>
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="ACY106">
         <f t="shared" ca="1" si="13"/>
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="ACZ106">
         <f t="shared" ca="1" si="13"/>
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="ADA106">
         <f t="shared" ca="1" si="13"/>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="ADB106">
         <f t="shared" ca="1" si="13"/>
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="ADC106">
         <f t="shared" ca="1" si="13"/>
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="ADD106">
         <f t="shared" ca="1" si="13"/>
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="ADE106">
         <f t="shared" ca="1" si="13"/>
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="ADF106">
         <f t="shared" ca="1" si="13"/>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="ADG106">
         <f t="shared" ca="1" si="13"/>
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="ADH106">
         <f t="shared" ca="1" si="13"/>
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="ADI106">
         <f t="shared" ca="1" si="13"/>
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="ADJ106">
         <f t="shared" ca="1" si="13"/>
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="ADK106">
         <f t="shared" ca="1" si="13"/>
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="ADL106">
         <f t="shared" ca="1" si="13"/>
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="ADM106">
         <f t="shared" ca="1" si="13"/>
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="ADN106">
         <f t="shared" ca="1" si="13"/>
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="ADO106">
         <f t="shared" ca="1" si="13"/>
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="ADP106">
         <f t="shared" ca="1" si="13"/>
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="ADQ106">
         <f t="shared" ca="1" si="13"/>
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="ADR106">
         <f t="shared" ca="1" si="13"/>
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="ADS106">
         <f t="shared" ca="1" si="13"/>
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="ADT106">
         <f t="shared" ca="1" si="13"/>
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="ADU106">
         <f t="shared" ca="1" si="13"/>
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="ADV106">
         <f t="shared" ca="1" si="13"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="ADW106">
         <f t="shared" ca="1" si="13"/>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="ADX106">
         <f t="shared" ca="1" si="13"/>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="ADY106">
         <f t="shared" ca="1" si="13"/>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="ADZ106">
         <f t="shared" ca="1" si="13"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AEA106">
         <f t="shared" ca="1" si="13"/>
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AEB106">
         <f t="shared" ca="1" si="13"/>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AEC106">
         <f t="shared" ca="1" si="13"/>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AED106">
         <f t="shared" ca="1" si="13"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AEE106">
         <f t="shared" ca="1" si="13"/>
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AEF106">
         <f t="shared" ca="1" si="13"/>
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="AEG106">
         <f t="shared" ca="1" si="13"/>
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="AEH106">
         <f t="shared" ca="1" si="13"/>
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="AEI106">
         <f t="shared" ca="1" si="13"/>
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="AEJ106">
         <f t="shared" ca="1" si="13"/>
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="AEK106">
         <f t="shared" ca="1" si="13"/>
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="AEL106">
         <f t="shared" ca="1" si="13"/>
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AEM106">
         <f t="shared" ca="1" si="13"/>
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="AEN106">
         <f t="shared" ca="1" si="13"/>
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="AEO106">
         <f t="shared" ca="1" si="13"/>
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="AEP106">
         <f t="shared" ca="1" si="13"/>
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="AEQ106">
         <f t="shared" ca="1" si="13"/>
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="AER106">
         <f t="shared" ca="1" si="13"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AES106">
         <f t="shared" ca="1" si="13"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AET106">
         <f t="shared" ca="1" si="13"/>
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AEU106">
         <f t="shared" ca="1" si="13"/>
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AEV106">
         <f t="shared" ca="1" si="13"/>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="AEW106">
         <f t="shared" ca="1" si="13"/>
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="AEX106">
         <f t="shared" ca="1" si="13"/>
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AEY106">
         <f t="shared" ca="1" si="13"/>
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="AEZ106">
         <f t="shared" ca="1" si="13"/>
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="AFA106">
         <f t="shared" ca="1" si="13"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AFB106">
         <f t="shared" ref="AFB106:AHM106" ca="1" si="14">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="AFC106">
         <f t="shared" ca="1" si="14"/>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AFD106">
         <f t="shared" ca="1" si="14"/>
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="AFE106">
         <f t="shared" ca="1" si="14"/>
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AFF106">
         <f t="shared" ca="1" si="14"/>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="AFG106">
         <f t="shared" ca="1" si="14"/>
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AFH106">
         <f t="shared" ca="1" si="14"/>
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="AFI106">
         <f t="shared" ca="1" si="14"/>
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="AFJ106">
         <f t="shared" ca="1" si="14"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AFK106">
         <f t="shared" ca="1" si="14"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AFL106">
         <f t="shared" ca="1" si="14"/>
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AFM106">
         <f t="shared" ca="1" si="14"/>
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AFN106">
         <f t="shared" ca="1" si="14"/>
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="AFO106">
         <f t="shared" ca="1" si="14"/>
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="AFP106">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="AFQ106">
         <f t="shared" ca="1" si="14"/>
@@ -5805,35 +5841,35 @@
       </c>
       <c r="AFR106">
         <f t="shared" ca="1" si="14"/>
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="AFS106">
         <f t="shared" ca="1" si="14"/>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="AFT106">
         <f t="shared" ca="1" si="14"/>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AFU106">
         <f t="shared" ca="1" si="14"/>
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="AFV106">
         <f t="shared" ca="1" si="14"/>
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="AFW106">
         <f t="shared" ca="1" si="14"/>
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="AFX106">
         <f t="shared" ca="1" si="14"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AFY106">
         <f t="shared" ca="1" si="14"/>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="AFZ106">
         <f t="shared" ca="1" si="14"/>
@@ -5841,303 +5877,303 @@
       </c>
       <c r="AGA106">
         <f t="shared" ca="1" si="14"/>
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="AGB106">
         <f t="shared" ca="1" si="14"/>
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AGC106">
         <f t="shared" ca="1" si="14"/>
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AGD106">
         <f t="shared" ca="1" si="14"/>
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="AGE106">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AGF106">
         <f t="shared" ca="1" si="14"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AGG106">
         <f t="shared" ca="1" si="14"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AGH106">
         <f t="shared" ca="1" si="14"/>
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="AGI106">
         <f t="shared" ca="1" si="14"/>
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="AGJ106">
         <f t="shared" ca="1" si="14"/>
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="AGK106">
         <f t="shared" ca="1" si="14"/>
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="AGL106">
         <f t="shared" ca="1" si="14"/>
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="AGM106">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AGN106">
         <f t="shared" ca="1" si="14"/>
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="AGO106">
         <f t="shared" ca="1" si="14"/>
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="AGP106">
         <f t="shared" ca="1" si="14"/>
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AGQ106">
         <f t="shared" ca="1" si="14"/>
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="AGR106">
         <f t="shared" ca="1" si="14"/>
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AGS106">
         <f t="shared" ca="1" si="14"/>
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="AGT106">
         <f t="shared" ca="1" si="14"/>
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AGU106">
         <f t="shared" ca="1" si="14"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AGV106">
         <f t="shared" ca="1" si="14"/>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AGW106">
         <f t="shared" ca="1" si="14"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AGX106">
         <f t="shared" ca="1" si="14"/>
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AGY106">
         <f t="shared" ca="1" si="14"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AGZ106">
         <f t="shared" ca="1" si="14"/>
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AHA106">
         <f t="shared" ca="1" si="14"/>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="AHB106">
         <f t="shared" ca="1" si="14"/>
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="AHC106">
         <f t="shared" ca="1" si="14"/>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AHD106">
         <f t="shared" ca="1" si="14"/>
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="AHE106">
         <f t="shared" ca="1" si="14"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AHF106">
         <f t="shared" ca="1" si="14"/>
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AHG106">
         <f t="shared" ca="1" si="14"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AHH106">
         <f t="shared" ca="1" si="14"/>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AHI106">
         <f t="shared" ca="1" si="14"/>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AHJ106">
         <f t="shared" ca="1" si="14"/>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AHK106">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AHL106">
         <f t="shared" ca="1" si="14"/>
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AHM106">
         <f t="shared" ca="1" si="14"/>
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="AHN106">
         <f t="shared" ref="AHN106:AJY106" ca="1" si="15">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="AHO106">
         <f t="shared" ca="1" si="15"/>
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AHP106">
         <f t="shared" ca="1" si="15"/>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AHQ106">
         <f t="shared" ca="1" si="15"/>
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AHR106">
         <f t="shared" ca="1" si="15"/>
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="AHS106">
         <f t="shared" ca="1" si="15"/>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AHT106">
         <f t="shared" ca="1" si="15"/>
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AHU106">
         <f t="shared" ca="1" si="15"/>
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="AHV106">
         <f t="shared" ca="1" si="15"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AHW106">
         <f t="shared" ca="1" si="15"/>
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AHX106">
         <f t="shared" ca="1" si="15"/>
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="AHY106">
         <f t="shared" ca="1" si="15"/>
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AHZ106">
         <f t="shared" ca="1" si="15"/>
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="AIA106">
         <f t="shared" ca="1" si="15"/>
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="AIB106">
         <f t="shared" ca="1" si="15"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AIC106">
         <f t="shared" ca="1" si="15"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AID106">
         <f t="shared" ca="1" si="15"/>
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AIE106">
         <f t="shared" ca="1" si="15"/>
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="AIF106">
         <f t="shared" ca="1" si="15"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AIG106">
         <f t="shared" ca="1" si="15"/>
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="AIH106">
         <f t="shared" ca="1" si="15"/>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AII106">
         <f t="shared" ca="1" si="15"/>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="AIJ106">
         <f t="shared" ca="1" si="15"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AIK106">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="AIL106">
         <f t="shared" ca="1" si="15"/>
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="AIM106">
         <f t="shared" ca="1" si="15"/>
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="AIN106">
         <f t="shared" ca="1" si="15"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AIO106">
         <f t="shared" ca="1" si="15"/>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AIP106">
         <f t="shared" ca="1" si="15"/>
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="AIQ106">
         <f t="shared" ca="1" si="15"/>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="AIR106">
         <f t="shared" ca="1" si="15"/>
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AIS106">
         <f t="shared" ca="1" si="15"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AIT106">
         <f t="shared" ca="1" si="15"/>
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="AIU106">
         <f t="shared" ca="1" si="15"/>
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="AIV106">
         <f t="shared" ca="1" si="15"/>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AIW106">
         <f t="shared" ca="1" si="15"/>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="AIX106">
         <f t="shared" ca="1" si="15"/>
@@ -6145,19 +6181,19 @@
       </c>
       <c r="AIY106">
         <f t="shared" ca="1" si="15"/>
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="AIZ106">
         <f t="shared" ca="1" si="15"/>
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="AJA106">
         <f t="shared" ca="1" si="15"/>
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AJB106">
         <f t="shared" ca="1" si="15"/>
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AJC106">
         <f t="shared" ca="1" si="15"/>
@@ -6165,247 +6201,247 @@
       </c>
       <c r="AJD106">
         <f t="shared" ca="1" si="15"/>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AJE106">
         <f t="shared" ca="1" si="15"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJF106">
         <f t="shared" ca="1" si="15"/>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="AJG106">
         <f t="shared" ca="1" si="15"/>
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AJH106">
         <f t="shared" ca="1" si="15"/>
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="AJI106">
         <f t="shared" ca="1" si="15"/>
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="AJJ106">
         <f t="shared" ca="1" si="15"/>
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJK106">
         <f t="shared" ca="1" si="15"/>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AJL106">
         <f t="shared" ca="1" si="15"/>
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="AJM106">
         <f t="shared" ca="1" si="15"/>
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="AJN106">
         <f t="shared" ca="1" si="15"/>
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="AJO106">
         <f t="shared" ca="1" si="15"/>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="AJP106">
         <f t="shared" ca="1" si="15"/>
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="AJQ106">
         <f t="shared" ca="1" si="15"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AJR106">
         <f t="shared" ca="1" si="15"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AJS106">
         <f t="shared" ca="1" si="15"/>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AJT106">
         <f t="shared" ca="1" si="15"/>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AJU106">
         <f t="shared" ca="1" si="15"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AJV106">
         <f t="shared" ca="1" si="15"/>
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="AJW106">
         <f t="shared" ca="1" si="15"/>
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="AJX106">
         <f t="shared" ca="1" si="15"/>
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AJY106">
         <f t="shared" ca="1" si="15"/>
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="AJZ106">
         <f t="shared" ref="AJZ106:ALL106" ca="1" si="16">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="AKA106">
         <f t="shared" ca="1" si="16"/>
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="AKB106">
         <f t="shared" ca="1" si="16"/>
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="AKC106">
         <f t="shared" ca="1" si="16"/>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AKD106">
         <f t="shared" ca="1" si="16"/>
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AKE106">
         <f t="shared" ca="1" si="16"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AKF106">
         <f t="shared" ca="1" si="16"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AKG106">
         <f t="shared" ca="1" si="16"/>
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="AKH106">
         <f t="shared" ca="1" si="16"/>
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AKI106">
         <f t="shared" ca="1" si="16"/>
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="AKJ106">
         <f t="shared" ca="1" si="16"/>
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AKK106">
         <f t="shared" ca="1" si="16"/>
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="AKL106">
         <f t="shared" ca="1" si="16"/>
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="AKM106">
         <f t="shared" ca="1" si="16"/>
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="AKN106">
         <f t="shared" ca="1" si="16"/>
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="AKO106">
         <f t="shared" ca="1" si="16"/>
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="AKP106">
         <f t="shared" ca="1" si="16"/>
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="AKQ106">
         <f t="shared" ca="1" si="16"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AKR106">
         <f t="shared" ca="1" si="16"/>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="AKS106">
         <f t="shared" ca="1" si="16"/>
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AKT106">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="AKU106">
         <f t="shared" ca="1" si="16"/>
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AKV106">
         <f t="shared" ca="1" si="16"/>
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="AKW106">
         <f t="shared" ca="1" si="16"/>
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="AKX106">
         <f t="shared" ca="1" si="16"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AKY106">
         <f t="shared" ca="1" si="16"/>
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AKZ106">
         <f t="shared" ca="1" si="16"/>
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="ALA106">
         <f t="shared" ca="1" si="16"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="ALB106">
         <f t="shared" ca="1" si="16"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="ALC106">
         <f t="shared" ca="1" si="16"/>
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="ALD106">
         <f t="shared" ca="1" si="16"/>
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="ALE106">
         <f t="shared" ca="1" si="16"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="ALF106">
         <f t="shared" ca="1" si="16"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="ALG106">
         <f t="shared" ca="1" si="16"/>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="ALH106">
         <f t="shared" ca="1" si="16"/>
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="ALI106">
         <f t="shared" ca="1" si="16"/>
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="ALJ106">
         <f t="shared" ca="1" si="16"/>
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="ALK106">
         <f t="shared" ca="1" si="16"/>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="ALL106">
         <f t="shared" ca="1" si="16"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:1000">
@@ -6695,7 +6731,7 @@
         <v>0</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="148" spans="1:4">

--- a/excel/06.xlsx
+++ b/excel/06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yabuki\Dropbox\it-chiba\データ解析入門\analysis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECE2EB6-DEDF-46CA-99A8-5016FA5F019E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CDEBD5-1697-44D3-8B55-9874775A0DCE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="3950" windowWidth="15300" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="4630" windowWidth="15300" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1329,7 +1329,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>←下限値はB146，上限値はA132．（コピペだと，数値計算の誤差が蓄積し，ちょうど最大値にならない危険がある．）</t>
+    <t>←下限値はB146，上限値はA132（A146+A$133だと，数値計算の誤差が蓄積し，ちょうど最大値にならない危険がある．）</t>
     <rPh sb="1" eb="3">
       <t>カゲン</t>
     </rPh>
@@ -1342,22 +1342,22 @@
     <rPh sb="12" eb="13">
       <t>アタイ</t>
     </rPh>
-    <rPh sb="26" eb="28">
+    <rPh sb="32" eb="34">
       <t>スウチ</t>
     </rPh>
-    <rPh sb="28" eb="30">
+    <rPh sb="34" eb="36">
       <t>ケイサン</t>
     </rPh>
-    <rPh sb="31" eb="33">
+    <rPh sb="37" eb="39">
       <t>ゴサ</t>
     </rPh>
-    <rPh sb="34" eb="36">
+    <rPh sb="40" eb="42">
       <t>チクセキ</t>
     </rPh>
-    <rPh sb="42" eb="45">
+    <rPh sb="48" eb="51">
       <t>サイダイチ</t>
     </rPh>
-    <rPh sb="50" eb="52">
+    <rPh sb="56" eb="58">
       <t>キケン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1724,7 +1724,7 @@
   <dimension ref="A1:ALL217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D149" sqref="D149"/>
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2445,47 +2445,47 @@
     <row r="106" spans="1:1000">
       <c r="A106">
         <f ca="1">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B106">
         <f t="shared" ref="B106:BM106" ca="1" si="1">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G106">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="I106">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="J106">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K106">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="L106">
         <f t="shared" ca="1" si="1"/>
@@ -2493,367 +2493,367 @@
       </c>
       <c r="M106">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N106">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="O106">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="P106">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Q106">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="R106">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S106">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="T106">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="U106">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="V106">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="W106">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="X106">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="Y106">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z106">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="AA106">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AB106">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="AC106">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="AD106">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE106">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="AF106">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="AG106">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AH106">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AI106">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="AJ106">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AK106">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="AL106">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="AM106">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AN106">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="AO106">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="AP106">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AQ106">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="AR106">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AS106">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AT106">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AU106">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AV106">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AW106">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AX106">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="AY106">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="AZ106">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="BA106">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="BB106">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="BC106">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="BD106">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BE106">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="BF106">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="BG106">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="BH106">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="BI106">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="BJ106">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="BK106">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="BL106">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="BM106">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="BN106">
         <f t="shared" ref="BN106:DY106" ca="1" si="2">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="BO106">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="BP106">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="BQ106">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="BR106">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="BS106">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="BT106">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="BU106">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="BV106">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="BW106">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="BX106">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BY106">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="BZ106">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="CA106">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="CB106">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="CC106">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="CD106">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="CE106">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="CF106">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="CG106">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="CH106">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="CI106">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="CJ106">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="CK106">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="CL106">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="CM106">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="CN106">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="CO106">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="CP106">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="CQ106">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="CR106">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="CS106">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="CT106">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="CU106">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="CV106">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="CW106">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="CX106">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="CY106">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="CZ106">
         <f t="shared" ca="1" si="2"/>
@@ -2861,103 +2861,103 @@
       </c>
       <c r="DA106">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="DB106">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="DC106">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="DD106">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="DE106">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="DF106">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="DG106">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="DH106">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="DI106">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="DJ106">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="DK106">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="DL106">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="DM106">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="DN106">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="DO106">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="DP106">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="DQ106">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="DR106">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="DS106">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="DT106">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="DU106">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="DV106">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="DW106">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="DX106">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="DY106">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="DZ106">
         <f t="shared" ref="DZ106:GK106" ca="1" si="3">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
@@ -2965,175 +2965,175 @@
       </c>
       <c r="EA106">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="EB106">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="EC106">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="ED106">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="EE106">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="EF106">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="EG106">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="EH106">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="EI106">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="EJ106">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="EK106">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="EL106">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="EM106">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="EN106">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="EO106">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="EP106">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="EQ106">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="ER106">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="ES106">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="ET106">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="EU106">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="EV106">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="EW106">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="EX106">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="EY106">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="EZ106">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="FA106">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="FB106">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="FC106">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="FD106">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="FE106">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="FF106">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="FG106">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="FH106">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="FI106">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="FJ106">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="FK106">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="FL106">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="FM106">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="FN106">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="FO106">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="FP106">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="FQ106">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="FR106">
         <f t="shared" ca="1" si="3"/>
@@ -3141,43 +3141,43 @@
       </c>
       <c r="FS106">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="FT106">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="FU106">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="FV106">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="FW106">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="FX106">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="FY106">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="FZ106">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="GA106">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="GB106">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="GC106">
         <f>INT($B$7/100000)</f>
@@ -3197,359 +3197,359 @@
       </c>
       <c r="GG106">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="GH106">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="GI106">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="GJ106">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="GK106">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="GL106">
         <f t="shared" ref="GL106:IW106" ca="1" si="4">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="GM106">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="GN106">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="GO106">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="GP106">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="GQ106">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="GR106">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="GS106">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="GT106">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="GU106">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="GV106">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="GW106">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="GX106">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="GY106">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="GZ106">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="HA106">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="HB106">
         <f t="shared" ca="1" si="4"/>
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="HC106">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="HD106">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="HE106">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="HF106">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="HG106">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="HH106">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="HI106">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="HJ106">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="HK106">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="HL106">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="HM106">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="HN106">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="HO106">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="HP106">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="HQ106">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="HR106">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="HS106">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="HT106">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="HU106">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="HV106">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="HW106">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="HX106">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="HY106">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="HZ106">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="IA106">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="IB106">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="IC106">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="ID106">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="IE106">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="IF106">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="IG106">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="IH106">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="II106">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="IJ106">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="IK106">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="IL106">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="IM106">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="IN106">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="IO106">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="IP106">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="IQ106">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="IR106">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="IS106">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="IT106">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="IU106">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="IV106">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="IW106">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="IX106">
         <f t="shared" ref="IX106:LI106" ca="1" si="5">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="IY106">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="IZ106">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="JA106">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="JB106">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="JC106">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="JD106">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="JE106">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="JF106">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="JG106">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="JH106">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="JI106">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="JJ106">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="JK106">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="JL106">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="JM106">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="JN106">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="JO106">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="JP106">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="JQ106">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="JR106">
         <f t="shared" ca="1" si="5"/>
@@ -3557,835 +3557,835 @@
       </c>
       <c r="JS106">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="JT106">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="JU106">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="JV106">
         <f t="shared" ca="1" si="5"/>
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="JW106">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="JX106">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="JY106">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="JZ106">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="KA106">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="KB106">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="KC106">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="KD106">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="KE106">
         <f t="shared" ca="1" si="5"/>
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="KF106">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="KG106">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="KH106">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="KI106">
         <f t="shared" ca="1" si="5"/>
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="KJ106">
         <f t="shared" ca="1" si="5"/>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="KK106">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="KL106">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="KM106">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="KN106">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="KO106">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="KP106">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="KQ106">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="KR106">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="KS106">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="KT106">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="KU106">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="KV106">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="KW106">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="KX106">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="KY106">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="KZ106">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="LA106">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="LB106">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="LC106">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="LD106">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="LE106">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="LF106">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="LG106">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="LH106">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="LI106">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="LJ106">
         <f t="shared" ref="LJ106:NU106" ca="1" si="6">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="LK106">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="LL106">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="LM106">
         <f t="shared" ca="1" si="6"/>
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="LN106">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="LO106">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="LP106">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="LQ106">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="LR106">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="LS106">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="LT106">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="LU106">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="LV106">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="LW106">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="LX106">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="LY106">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="LZ106">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="MA106">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="MB106">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="MC106">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="MD106">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="ME106">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="MF106">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="MG106">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="MH106">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="MI106">
         <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="MJ106">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="MK106">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="ML106">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="MM106">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="MN106">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="MO106">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="MP106">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="MQ106">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="MR106">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="MS106">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="MT106">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="MU106">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="MV106">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="MW106">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="MX106">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="MY106">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="MZ106">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="NA106">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="NB106">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="NC106">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="ND106">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="NE106">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="NF106">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="NG106">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="NH106">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="NI106">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="NJ106">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="NK106">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="NL106">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="NM106">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="NN106">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="NO106">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="NP106">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="NQ106">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="NR106">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="NS106">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="NT106">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="NU106">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="NV106">
         <f t="shared" ref="NV106:QG106" ca="1" si="7">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="NW106">
         <f t="shared" ca="1" si="7"/>
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="NX106">
         <f t="shared" ca="1" si="7"/>
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="NY106">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="NZ106">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="OA106">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="OB106">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="OC106">
         <f t="shared" ca="1" si="7"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="OD106">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="OE106">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="OF106">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="OG106">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="OH106">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="OI106">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="OJ106">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="OK106">
         <f t="shared" ca="1" si="7"/>
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="OL106">
         <f t="shared" ca="1" si="7"/>
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="OM106">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="ON106">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="OO106">
         <f t="shared" ca="1" si="7"/>
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="OP106">
         <f t="shared" ca="1" si="7"/>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="OQ106">
         <f t="shared" ca="1" si="7"/>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="OR106">
         <f t="shared" ca="1" si="7"/>
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="OS106">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="OT106">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="OU106">
         <f t="shared" ca="1" si="7"/>
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="OV106">
         <f t="shared" ca="1" si="7"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="OW106">
         <f t="shared" ca="1" si="7"/>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="OX106">
         <f t="shared" ca="1" si="7"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="OY106">
         <f t="shared" ca="1" si="7"/>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="OZ106">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="PA106">
         <f t="shared" ca="1" si="7"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="PB106">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="PC106">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="PD106">
         <f t="shared" ca="1" si="7"/>
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="PE106">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="PF106">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="PG106">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="PH106">
         <f t="shared" ca="1" si="7"/>
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="PI106">
         <f t="shared" ca="1" si="7"/>
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="PJ106">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="PK106">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="PL106">
         <f t="shared" ca="1" si="7"/>
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="PM106">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="PN106">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="PO106">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="PP106">
         <f t="shared" ca="1" si="7"/>
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="PQ106">
         <f t="shared" ca="1" si="7"/>
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="PR106">
         <f t="shared" ca="1" si="7"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="PS106">
         <f t="shared" ca="1" si="7"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="PT106">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="PU106">
         <f t="shared" ca="1" si="7"/>
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="PV106">
         <f t="shared" ca="1" si="7"/>
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="PW106">
         <f t="shared" ca="1" si="7"/>
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="PX106">
         <f t="shared" ca="1" si="7"/>
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="PY106">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="PZ106">
         <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="QA106">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="QB106">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="QC106">
         <f t="shared" ca="1" si="7"/>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="QD106">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="QE106">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="QF106">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="QG106">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="QH106">
         <f t="shared" ref="QH106:SS106" ca="1" si="8">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="QI106">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="QJ106">
         <f t="shared" ca="1" si="8"/>
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="QK106">
         <f t="shared" ca="1" si="8"/>
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="QL106">
         <f t="shared" ca="1" si="8"/>
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="QM106">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="QN106">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="QO106">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="QP106">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="QQ106">
         <f t="shared" ca="1" si="8"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="QR106">
         <f t="shared" ca="1" si="8"/>
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="QS106">
         <f t="shared" ca="1" si="8"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="QT106">
         <f t="shared" ca="1" si="8"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="QU106">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="QV106">
         <f t="shared" ca="1" si="8"/>
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="QW106">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="QX106">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="QY106">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="QZ106">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="RA106">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="RB106">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="RC106">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="RD106">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="RE106">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="RF106">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="RG106">
         <f t="shared" ca="1" si="8"/>
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="RH106">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="RI106">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="RJ106">
         <f t="shared" ca="1" si="8"/>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="RK106">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="RL106">
         <f t="shared" ca="1" si="8"/>
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="RM106">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="RN106">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="RO106">
         <f t="shared" ca="1" si="8"/>
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="RP106">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="RQ106">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="RR106">
         <f t="shared" ca="1" si="8"/>
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="RS106">
         <f t="shared" ca="1" si="8"/>
@@ -4393,19 +4393,19 @@
       </c>
       <c r="RT106">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="RU106">
         <f t="shared" ca="1" si="8"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="RV106">
         <f t="shared" ca="1" si="8"/>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="RW106">
         <f t="shared" ca="1" si="8"/>
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="RX106">
         <f t="shared" ca="1" si="8"/>
@@ -4413,211 +4413,211 @@
       </c>
       <c r="RY106">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="RZ106">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="SA106">
         <f t="shared" ca="1" si="8"/>
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="SB106">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="SC106">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="SD106">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="SE106">
         <f t="shared" ca="1" si="8"/>
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="SF106">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="SG106">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="SH106">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="SI106">
         <f t="shared" ca="1" si="8"/>
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="SJ106">
         <f t="shared" ca="1" si="8"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="SK106">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="SL106">
         <f t="shared" ca="1" si="8"/>
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="SM106">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="SN106">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="SO106">
         <f t="shared" ca="1" si="8"/>
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="SP106">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="SQ106">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="SR106">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="SS106">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="ST106">
         <f t="shared" ref="ST106:VE106" ca="1" si="9">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="SU106">
         <f t="shared" ca="1" si="9"/>
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="SV106">
         <f t="shared" ca="1" si="9"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="SW106">
         <f t="shared" ca="1" si="9"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="SX106">
         <f t="shared" ca="1" si="9"/>
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="SY106">
         <f t="shared" ca="1" si="9"/>
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="SZ106">
         <f t="shared" ca="1" si="9"/>
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="TA106">
         <f t="shared" ca="1" si="9"/>
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="TB106">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="TC106">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="TD106">
         <f t="shared" ca="1" si="9"/>
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="TE106">
         <f t="shared" ca="1" si="9"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="TF106">
         <f t="shared" ca="1" si="9"/>
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="TG106">
         <f t="shared" ca="1" si="9"/>
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="TH106">
         <f t="shared" ca="1" si="9"/>
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="TI106">
         <f t="shared" ca="1" si="9"/>
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="TJ106">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="TK106">
         <f t="shared" ca="1" si="9"/>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="TL106">
         <f t="shared" ca="1" si="9"/>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="TM106">
         <f t="shared" ca="1" si="9"/>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="TN106">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="TO106">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="TP106">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="TQ106">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="TR106">
         <f t="shared" ca="1" si="9"/>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="TS106">
         <f t="shared" ca="1" si="9"/>
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="TT106">
         <f t="shared" ca="1" si="9"/>
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="TU106">
         <f t="shared" ca="1" si="9"/>
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="TV106">
         <f t="shared" ca="1" si="9"/>
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="TW106">
         <f t="shared" ca="1" si="9"/>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="TX106">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="TY106">
         <f t="shared" ca="1" si="9"/>
@@ -4625,327 +4625,327 @@
       </c>
       <c r="TZ106">
         <f t="shared" ca="1" si="9"/>
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="UA106">
         <f t="shared" ca="1" si="9"/>
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="UB106">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="UC106">
         <f t="shared" ca="1" si="9"/>
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="UD106">
         <f t="shared" ca="1" si="9"/>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="UE106">
         <f t="shared" ca="1" si="9"/>
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="UF106">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="UG106">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="UH106">
         <f t="shared" ca="1" si="9"/>
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="UI106">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="UJ106">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="UK106">
         <f t="shared" ca="1" si="9"/>
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="UL106">
         <f t="shared" ca="1" si="9"/>
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="UM106">
         <f t="shared" ca="1" si="9"/>
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="UN106">
         <f t="shared" ca="1" si="9"/>
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="UO106">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="UP106">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="UQ106">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="UR106">
         <f t="shared" ca="1" si="9"/>
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="US106">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="UT106">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="UU106">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="UV106">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="UW106">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="UX106">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="UY106">
         <f t="shared" ca="1" si="9"/>
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="UZ106">
         <f t="shared" ca="1" si="9"/>
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="VA106">
         <f t="shared" ca="1" si="9"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="VB106">
         <f t="shared" ca="1" si="9"/>
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="VC106">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="VD106">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="VE106">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="VF106">
         <f t="shared" ref="VF106:XQ106" ca="1" si="10">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="VG106">
         <f t="shared" ca="1" si="10"/>
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="VH106">
         <f t="shared" ca="1" si="10"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="VI106">
         <f t="shared" ca="1" si="10"/>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="VJ106">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="VK106">
         <f t="shared" ca="1" si="10"/>
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="VL106">
         <f t="shared" ca="1" si="10"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="VM106">
         <f t="shared" ca="1" si="10"/>
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="VN106">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="VO106">
         <f t="shared" ca="1" si="10"/>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="VP106">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="VQ106">
         <f t="shared" ca="1" si="10"/>
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="VR106">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="VS106">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="VT106">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="VU106">
         <f t="shared" ca="1" si="10"/>
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="VV106">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="VW106">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="VX106">
         <f t="shared" ca="1" si="10"/>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="VY106">
         <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="VZ106">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="WA106">
         <f t="shared" ca="1" si="10"/>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="WB106">
         <f t="shared" ca="1" si="10"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="WC106">
         <f t="shared" ca="1" si="10"/>
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="WD106">
         <f t="shared" ca="1" si="10"/>
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="WE106">
         <f t="shared" ca="1" si="10"/>
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="WF106">
         <f t="shared" ca="1" si="10"/>
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="WG106">
         <f t="shared" ca="1" si="10"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="WH106">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="WI106">
         <f t="shared" ca="1" si="10"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="WJ106">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="WK106">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="WL106">
         <f t="shared" ca="1" si="10"/>
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="WM106">
         <f t="shared" ca="1" si="10"/>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="WN106">
         <f t="shared" ca="1" si="10"/>
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="WO106">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="WP106">
         <f t="shared" ca="1" si="10"/>
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="WQ106">
         <f t="shared" ca="1" si="10"/>
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="WR106">
         <f t="shared" ca="1" si="10"/>
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="WS106">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="WT106">
         <f t="shared" ca="1" si="10"/>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="WU106">
         <f t="shared" ca="1" si="10"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="WV106">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="WW106">
         <f t="shared" ca="1" si="10"/>
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="WX106">
         <f t="shared" ca="1" si="10"/>
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="WY106">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="WZ106">
         <f t="shared" ca="1" si="10"/>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="XA106">
         <f t="shared" ca="1" si="10"/>
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="XB106">
         <f t="shared" ca="1" si="10"/>
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="XC106">
         <f t="shared" ca="1" si="10"/>
@@ -4953,83 +4953,83 @@
       </c>
       <c r="XD106">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="XE106">
         <f t="shared" ca="1" si="10"/>
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="XF106">
         <f t="shared" ca="1" si="10"/>
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="XG106">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="XH106">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="XI106">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="XJ106">
         <f t="shared" ca="1" si="10"/>
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="XK106">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="XL106">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="XM106">
         <f t="shared" ca="1" si="10"/>
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="XN106">
         <f t="shared" ca="1" si="10"/>
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="XO106">
         <f t="shared" ca="1" si="10"/>
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="XP106">
         <f t="shared" ca="1" si="10"/>
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="XQ106">
         <f t="shared" ca="1" si="10"/>
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="XR106">
         <f t="shared" ref="XR106:AAC106" ca="1" si="11">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="XS106">
         <f t="shared" ca="1" si="11"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XT106">
         <f t="shared" ca="1" si="11"/>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="XU106">
         <f t="shared" ca="1" si="11"/>
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="XV106">
         <f t="shared" ca="1" si="11"/>
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="XW106">
         <f t="shared" ca="1" si="11"/>
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="XX106">
         <f t="shared" ca="1" si="11"/>
@@ -5037,87 +5037,87 @@
       </c>
       <c r="XY106">
         <f t="shared" ca="1" si="11"/>
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="XZ106">
         <f t="shared" ca="1" si="11"/>
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="YA106">
         <f t="shared" ca="1" si="11"/>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="YB106">
         <f t="shared" ca="1" si="11"/>
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="YC106">
         <f t="shared" ca="1" si="11"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="YD106">
         <f t="shared" ca="1" si="11"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="YE106">
         <f t="shared" ca="1" si="11"/>
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="YF106">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="YG106">
         <f t="shared" ca="1" si="11"/>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="YH106">
         <f t="shared" ca="1" si="11"/>
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="YI106">
         <f t="shared" ca="1" si="11"/>
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="YJ106">
         <f t="shared" ca="1" si="11"/>
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="YK106">
         <f t="shared" ca="1" si="11"/>
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="YL106">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="YM106">
         <f t="shared" ca="1" si="11"/>
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="YN106">
         <f t="shared" ca="1" si="11"/>
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="YO106">
         <f t="shared" ca="1" si="11"/>
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="YP106">
         <f t="shared" ca="1" si="11"/>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="YQ106">
         <f t="shared" ca="1" si="11"/>
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="YR106">
         <f t="shared" ca="1" si="11"/>
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="YS106">
         <f t="shared" ca="1" si="11"/>
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="YT106">
         <f t="shared" ca="1" si="11"/>
@@ -5125,375 +5125,375 @@
       </c>
       <c r="YU106">
         <f t="shared" ca="1" si="11"/>
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="YV106">
         <f t="shared" ca="1" si="11"/>
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="YW106">
         <f t="shared" ca="1" si="11"/>
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="YX106">
         <f t="shared" ca="1" si="11"/>
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="YY106">
         <f t="shared" ca="1" si="11"/>
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="YZ106">
         <f t="shared" ca="1" si="11"/>
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="ZA106">
         <f t="shared" ca="1" si="11"/>
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="ZB106">
         <f t="shared" ca="1" si="11"/>
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="ZC106">
         <f t="shared" ca="1" si="11"/>
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="ZD106">
         <f t="shared" ca="1" si="11"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="ZE106">
         <f t="shared" ca="1" si="11"/>
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="ZF106">
         <f t="shared" ca="1" si="11"/>
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="ZG106">
         <f t="shared" ca="1" si="11"/>
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="ZH106">
         <f t="shared" ca="1" si="11"/>
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="ZI106">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="ZJ106">
         <f t="shared" ca="1" si="11"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="ZK106">
         <f t="shared" ca="1" si="11"/>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="ZL106">
         <f t="shared" ca="1" si="11"/>
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="ZM106">
         <f t="shared" ca="1" si="11"/>
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="ZN106">
         <f t="shared" ca="1" si="11"/>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="ZO106">
         <f t="shared" ca="1" si="11"/>
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="ZP106">
         <f t="shared" ca="1" si="11"/>
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="ZQ106">
         <f t="shared" ca="1" si="11"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="ZR106">
         <f t="shared" ca="1" si="11"/>
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="ZS106">
         <f t="shared" ca="1" si="11"/>
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="ZT106">
         <f t="shared" ca="1" si="11"/>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="ZU106">
         <f t="shared" ca="1" si="11"/>
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="ZV106">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="ZW106">
         <f t="shared" ca="1" si="11"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="ZX106">
         <f t="shared" ca="1" si="11"/>
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="ZY106">
         <f t="shared" ca="1" si="11"/>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="ZZ106">
         <f t="shared" ca="1" si="11"/>
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AAA106">
         <f t="shared" ca="1" si="11"/>
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="AAB106">
         <f t="shared" ca="1" si="11"/>
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="AAC106">
         <f t="shared" ca="1" si="11"/>
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="AAD106">
         <f t="shared" ref="AAD106:ACO106" ca="1" si="12">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="AAE106">
         <f t="shared" ca="1" si="12"/>
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AAF106">
         <f t="shared" ca="1" si="12"/>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AAG106">
         <f t="shared" ca="1" si="12"/>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AAH106">
         <f t="shared" ca="1" si="12"/>
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="AAI106">
         <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AAJ106">
         <f t="shared" ca="1" si="12"/>
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="AAK106">
         <f t="shared" ca="1" si="12"/>
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="AAL106">
         <f t="shared" ca="1" si="12"/>
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="AAM106">
         <f t="shared" ca="1" si="12"/>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AAN106">
         <f t="shared" ca="1" si="12"/>
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AAO106">
         <f t="shared" ca="1" si="12"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="AAP106">
         <f t="shared" ca="1" si="12"/>
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AAQ106">
         <f t="shared" ca="1" si="12"/>
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AAR106">
         <f t="shared" ca="1" si="12"/>
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="AAS106">
         <f t="shared" ca="1" si="12"/>
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AAT106">
         <f t="shared" ca="1" si="12"/>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="AAU106">
         <f t="shared" ca="1" si="12"/>
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="AAV106">
         <f t="shared" ca="1" si="12"/>
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AAW106">
         <f t="shared" ca="1" si="12"/>
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="AAX106">
         <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="AAY106">
         <f t="shared" ca="1" si="12"/>
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="AAZ106">
         <f t="shared" ca="1" si="12"/>
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="ABA106">
         <f t="shared" ca="1" si="12"/>
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="ABB106">
         <f t="shared" ca="1" si="12"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="ABC106">
         <f t="shared" ca="1" si="12"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="ABD106">
         <f t="shared" ca="1" si="12"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="ABE106">
         <f t="shared" ca="1" si="12"/>
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="ABF106">
         <f t="shared" ca="1" si="12"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="ABG106">
         <f t="shared" ca="1" si="12"/>
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="ABH106">
         <f t="shared" ca="1" si="12"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="ABI106">
         <f t="shared" ca="1" si="12"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="ABJ106">
         <f t="shared" ca="1" si="12"/>
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="ABK106">
         <f t="shared" ca="1" si="12"/>
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="ABL106">
         <f t="shared" ca="1" si="12"/>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="ABM106">
         <f t="shared" ca="1" si="12"/>
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="ABN106">
         <f t="shared" ca="1" si="12"/>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="ABO106">
         <f t="shared" ca="1" si="12"/>
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="ABP106">
         <f t="shared" ca="1" si="12"/>
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="ABQ106">
         <f t="shared" ca="1" si="12"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="ABR106">
         <f t="shared" ca="1" si="12"/>
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="ABS106">
         <f t="shared" ca="1" si="12"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="ABT106">
         <f t="shared" ca="1" si="12"/>
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="ABU106">
         <f t="shared" ca="1" si="12"/>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="ABV106">
         <f t="shared" ca="1" si="12"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="ABW106">
         <f t="shared" ca="1" si="12"/>
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="ABX106">
         <f t="shared" ca="1" si="12"/>
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="ABY106">
         <f t="shared" ca="1" si="12"/>
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="ABZ106">
         <f t="shared" ca="1" si="12"/>
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="ACA106">
         <f t="shared" ca="1" si="12"/>
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="ACB106">
         <f t="shared" ca="1" si="12"/>
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="ACC106">
         <f t="shared" ca="1" si="12"/>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="ACD106">
         <f t="shared" ca="1" si="12"/>
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="ACE106">
         <f t="shared" ca="1" si="12"/>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="ACF106">
         <f t="shared" ca="1" si="12"/>
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="ACG106">
         <f t="shared" ca="1" si="12"/>
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="ACH106">
         <f t="shared" ca="1" si="12"/>
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="ACI106">
         <f t="shared" ca="1" si="12"/>
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="ACJ106">
         <f t="shared" ca="1" si="12"/>
@@ -5501,243 +5501,243 @@
       </c>
       <c r="ACK106">
         <f t="shared" ca="1" si="12"/>
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="ACL106">
         <f t="shared" ca="1" si="12"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="ACM106">
         <f t="shared" ca="1" si="12"/>
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="ACN106">
         <f t="shared" ca="1" si="12"/>
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="ACO106">
         <f t="shared" ca="1" si="12"/>
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="ACP106">
         <f t="shared" ref="ACP106:AFA106" ca="1" si="13">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="ACQ106">
         <f t="shared" ca="1" si="13"/>
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="ACR106">
         <f t="shared" ca="1" si="13"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="ACS106">
         <f t="shared" ca="1" si="13"/>
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="ACT106">
         <f t="shared" ca="1" si="13"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="ACU106">
         <f t="shared" ca="1" si="13"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="ACV106">
         <f t="shared" ca="1" si="13"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="ACW106">
         <f t="shared" ca="1" si="13"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="ACX106">
         <f t="shared" ca="1" si="13"/>
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="ACY106">
         <f t="shared" ca="1" si="13"/>
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="ACZ106">
         <f t="shared" ca="1" si="13"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="ADA106">
         <f t="shared" ca="1" si="13"/>
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="ADB106">
         <f t="shared" ca="1" si="13"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="ADC106">
         <f t="shared" ca="1" si="13"/>
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="ADD106">
         <f t="shared" ca="1" si="13"/>
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="ADE106">
         <f t="shared" ca="1" si="13"/>
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="ADF106">
         <f t="shared" ca="1" si="13"/>
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="ADG106">
         <f t="shared" ca="1" si="13"/>
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="ADH106">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="ADI106">
         <f t="shared" ca="1" si="13"/>
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="ADJ106">
         <f t="shared" ca="1" si="13"/>
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="ADK106">
         <f t="shared" ca="1" si="13"/>
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="ADL106">
         <f t="shared" ca="1" si="13"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="ADM106">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="ADN106">
         <f t="shared" ca="1" si="13"/>
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="ADO106">
         <f t="shared" ca="1" si="13"/>
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="ADP106">
         <f t="shared" ca="1" si="13"/>
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="ADQ106">
         <f t="shared" ca="1" si="13"/>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="ADR106">
         <f t="shared" ca="1" si="13"/>
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="ADS106">
         <f t="shared" ca="1" si="13"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="ADT106">
         <f t="shared" ca="1" si="13"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="ADU106">
         <f t="shared" ca="1" si="13"/>
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="ADV106">
         <f t="shared" ca="1" si="13"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="ADW106">
         <f t="shared" ca="1" si="13"/>
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ADX106">
         <f t="shared" ca="1" si="13"/>
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="ADY106">
         <f t="shared" ca="1" si="13"/>
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="ADZ106">
         <f t="shared" ca="1" si="13"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AEA106">
         <f t="shared" ca="1" si="13"/>
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AEB106">
         <f t="shared" ca="1" si="13"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AEC106">
         <f t="shared" ca="1" si="13"/>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AED106">
         <f t="shared" ca="1" si="13"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AEE106">
         <f t="shared" ca="1" si="13"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AEF106">
         <f t="shared" ca="1" si="13"/>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AEG106">
         <f t="shared" ca="1" si="13"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AEH106">
         <f t="shared" ca="1" si="13"/>
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="AEI106">
         <f t="shared" ca="1" si="13"/>
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="AEJ106">
         <f t="shared" ca="1" si="13"/>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AEK106">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AEL106">
         <f t="shared" ca="1" si="13"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AEM106">
         <f t="shared" ca="1" si="13"/>
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AEN106">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AEO106">
         <f t="shared" ca="1" si="13"/>
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AEP106">
         <f t="shared" ca="1" si="13"/>
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="AEQ106">
         <f t="shared" ca="1" si="13"/>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AER106">
         <f t="shared" ca="1" si="13"/>
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AES106">
         <f t="shared" ca="1" si="13"/>
@@ -5745,191 +5745,191 @@
       </c>
       <c r="AET106">
         <f t="shared" ca="1" si="13"/>
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="AEU106">
         <f t="shared" ca="1" si="13"/>
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="AEV106">
         <f t="shared" ca="1" si="13"/>
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="AEW106">
         <f t="shared" ca="1" si="13"/>
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AEX106">
         <f t="shared" ca="1" si="13"/>
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="AEY106">
         <f t="shared" ca="1" si="13"/>
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AEZ106">
         <f t="shared" ca="1" si="13"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AFA106">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AFB106">
         <f t="shared" ref="AFB106:AHM106" ca="1" si="14">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="AFC106">
         <f t="shared" ca="1" si="14"/>
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="AFD106">
         <f t="shared" ca="1" si="14"/>
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="AFE106">
         <f t="shared" ca="1" si="14"/>
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="AFF106">
         <f t="shared" ca="1" si="14"/>
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="AFG106">
         <f t="shared" ca="1" si="14"/>
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AFH106">
         <f t="shared" ca="1" si="14"/>
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AFI106">
         <f t="shared" ca="1" si="14"/>
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="AFJ106">
         <f t="shared" ca="1" si="14"/>
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="AFK106">
         <f t="shared" ca="1" si="14"/>
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="AFL106">
         <f t="shared" ca="1" si="14"/>
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AFM106">
         <f t="shared" ca="1" si="14"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AFN106">
         <f t="shared" ca="1" si="14"/>
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AFO106">
         <f t="shared" ca="1" si="14"/>
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="AFP106">
         <f t="shared" ca="1" si="14"/>
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AFQ106">
         <f t="shared" ca="1" si="14"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AFR106">
         <f t="shared" ca="1" si="14"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AFS106">
         <f t="shared" ca="1" si="14"/>
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="AFT106">
         <f t="shared" ca="1" si="14"/>
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="AFU106">
         <f t="shared" ca="1" si="14"/>
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AFV106">
         <f t="shared" ca="1" si="14"/>
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AFW106">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AFX106">
         <f t="shared" ca="1" si="14"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AFY106">
         <f t="shared" ca="1" si="14"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AFZ106">
         <f t="shared" ca="1" si="14"/>
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="AGA106">
         <f t="shared" ca="1" si="14"/>
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="AGB106">
         <f t="shared" ca="1" si="14"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="AGC106">
         <f t="shared" ca="1" si="14"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AGD106">
         <f t="shared" ca="1" si="14"/>
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="AGE106">
         <f t="shared" ca="1" si="14"/>
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="AGF106">
         <f t="shared" ca="1" si="14"/>
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="AGG106">
         <f t="shared" ca="1" si="14"/>
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="AGH106">
         <f t="shared" ca="1" si="14"/>
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="AGI106">
         <f t="shared" ca="1" si="14"/>
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="AGJ106">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="AGK106">
         <f t="shared" ca="1" si="14"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AGL106">
         <f t="shared" ca="1" si="14"/>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AGM106">
         <f t="shared" ca="1" si="14"/>
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="AGN106">
         <f t="shared" ca="1" si="14"/>
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AGO106">
         <f t="shared" ca="1" si="14"/>
@@ -5937,243 +5937,243 @@
       </c>
       <c r="AGP106">
         <f t="shared" ca="1" si="14"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AGQ106">
         <f t="shared" ca="1" si="14"/>
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="AGR106">
         <f t="shared" ca="1" si="14"/>
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AGS106">
         <f t="shared" ca="1" si="14"/>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AGT106">
         <f t="shared" ca="1" si="14"/>
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="AGU106">
         <f t="shared" ca="1" si="14"/>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AGV106">
         <f t="shared" ca="1" si="14"/>
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="AGW106">
         <f t="shared" ca="1" si="14"/>
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="AGX106">
         <f t="shared" ca="1" si="14"/>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AGY106">
         <f t="shared" ca="1" si="14"/>
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AGZ106">
         <f t="shared" ca="1" si="14"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AHA106">
         <f t="shared" ca="1" si="14"/>
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AHB106">
         <f t="shared" ca="1" si="14"/>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="AHC106">
         <f t="shared" ca="1" si="14"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AHD106">
         <f t="shared" ca="1" si="14"/>
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AHE106">
         <f t="shared" ca="1" si="14"/>
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="AHF106">
         <f t="shared" ca="1" si="14"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AHG106">
         <f t="shared" ca="1" si="14"/>
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="AHH106">
         <f t="shared" ca="1" si="14"/>
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AHI106">
         <f t="shared" ca="1" si="14"/>
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="AHJ106">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AHK106">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AHL106">
         <f t="shared" ca="1" si="14"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHM106">
         <f t="shared" ca="1" si="14"/>
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="AHN106">
         <f t="shared" ref="AHN106:AJY106" ca="1" si="15">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="AHO106">
         <f t="shared" ca="1" si="15"/>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AHP106">
         <f t="shared" ca="1" si="15"/>
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="AHQ106">
         <f t="shared" ca="1" si="15"/>
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="AHR106">
         <f t="shared" ca="1" si="15"/>
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="AHS106">
         <f t="shared" ca="1" si="15"/>
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AHT106">
         <f t="shared" ca="1" si="15"/>
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="AHU106">
         <f t="shared" ca="1" si="15"/>
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="AHV106">
         <f t="shared" ca="1" si="15"/>
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="AHW106">
         <f t="shared" ca="1" si="15"/>
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="AHX106">
         <f t="shared" ca="1" si="15"/>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="AHY106">
         <f t="shared" ca="1" si="15"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AHZ106">
         <f t="shared" ca="1" si="15"/>
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="AIA106">
         <f t="shared" ca="1" si="15"/>
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="AIB106">
         <f t="shared" ca="1" si="15"/>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AIC106">
         <f t="shared" ca="1" si="15"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AID106">
         <f t="shared" ca="1" si="15"/>
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="AIE106">
         <f t="shared" ca="1" si="15"/>
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="AIF106">
         <f t="shared" ca="1" si="15"/>
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="AIG106">
         <f t="shared" ca="1" si="15"/>
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="AIH106">
         <f t="shared" ca="1" si="15"/>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AII106">
         <f t="shared" ca="1" si="15"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AIJ106">
         <f t="shared" ca="1" si="15"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AIK106">
         <f t="shared" ca="1" si="15"/>
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AIL106">
         <f t="shared" ca="1" si="15"/>
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="AIM106">
         <f t="shared" ca="1" si="15"/>
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="AIN106">
         <f t="shared" ca="1" si="15"/>
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="AIO106">
         <f t="shared" ca="1" si="15"/>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AIP106">
         <f t="shared" ca="1" si="15"/>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="AIQ106">
         <f t="shared" ca="1" si="15"/>
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="AIR106">
         <f t="shared" ca="1" si="15"/>
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="AIS106">
         <f t="shared" ca="1" si="15"/>
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="AIT106">
         <f t="shared" ca="1" si="15"/>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AIU106">
         <f t="shared" ca="1" si="15"/>
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="AIV106">
         <f t="shared" ca="1" si="15"/>
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="AIW106">
         <f t="shared" ca="1" si="15"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AIX106">
         <f t="shared" ca="1" si="15"/>
@@ -6181,19 +6181,19 @@
       </c>
       <c r="AIY106">
         <f t="shared" ca="1" si="15"/>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AIZ106">
         <f t="shared" ca="1" si="15"/>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="AJA106">
         <f t="shared" ca="1" si="15"/>
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AJB106">
         <f t="shared" ca="1" si="15"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJC106">
         <f t="shared" ca="1" si="15"/>
@@ -6201,127 +6201,127 @@
       </c>
       <c r="AJD106">
         <f t="shared" ca="1" si="15"/>
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AJE106">
         <f t="shared" ca="1" si="15"/>
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AJF106">
         <f t="shared" ca="1" si="15"/>
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AJG106">
         <f t="shared" ca="1" si="15"/>
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="AJH106">
         <f t="shared" ca="1" si="15"/>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="AJI106">
         <f t="shared" ca="1" si="15"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AJJ106">
         <f t="shared" ca="1" si="15"/>
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJK106">
         <f t="shared" ca="1" si="15"/>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AJL106">
         <f t="shared" ca="1" si="15"/>
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AJM106">
         <f t="shared" ca="1" si="15"/>
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="AJN106">
         <f t="shared" ca="1" si="15"/>
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="AJO106">
         <f t="shared" ca="1" si="15"/>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AJP106">
         <f t="shared" ca="1" si="15"/>
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AJQ106">
         <f t="shared" ca="1" si="15"/>
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="AJR106">
         <f t="shared" ca="1" si="15"/>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AJS106">
         <f t="shared" ca="1" si="15"/>
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AJT106">
         <f t="shared" ca="1" si="15"/>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AJU106">
         <f t="shared" ca="1" si="15"/>
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="AJV106">
         <f t="shared" ca="1" si="15"/>
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJW106">
         <f t="shared" ca="1" si="15"/>
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="AJX106">
         <f t="shared" ca="1" si="15"/>
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="AJY106">
         <f t="shared" ca="1" si="15"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="AJZ106">
         <f t="shared" ref="AJZ106:ALL106" ca="1" si="16">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="AKA106">
         <f t="shared" ca="1" si="16"/>
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="AKB106">
         <f t="shared" ca="1" si="16"/>
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="AKC106">
         <f t="shared" ca="1" si="16"/>
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="AKD106">
         <f t="shared" ca="1" si="16"/>
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="AKE106">
         <f t="shared" ca="1" si="16"/>
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AKF106">
         <f t="shared" ca="1" si="16"/>
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="AKG106">
         <f t="shared" ca="1" si="16"/>
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="AKH106">
         <f t="shared" ca="1" si="16"/>
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="AKI106">
         <f t="shared" ca="1" si="16"/>
@@ -6329,119 +6329,119 @@
       </c>
       <c r="AKJ106">
         <f t="shared" ca="1" si="16"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AKK106">
         <f t="shared" ca="1" si="16"/>
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="AKL106">
         <f t="shared" ca="1" si="16"/>
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="AKM106">
         <f t="shared" ca="1" si="16"/>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AKN106">
         <f t="shared" ca="1" si="16"/>
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="AKO106">
         <f t="shared" ca="1" si="16"/>
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="AKP106">
         <f t="shared" ca="1" si="16"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AKQ106">
         <f t="shared" ca="1" si="16"/>
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AKR106">
         <f t="shared" ca="1" si="16"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AKS106">
         <f t="shared" ca="1" si="16"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AKT106">
         <f t="shared" ca="1" si="16"/>
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AKU106">
         <f t="shared" ca="1" si="16"/>
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="AKV106">
         <f t="shared" ca="1" si="16"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AKW106">
         <f t="shared" ca="1" si="16"/>
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AKX106">
         <f t="shared" ca="1" si="16"/>
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="AKY106">
         <f t="shared" ca="1" si="16"/>
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AKZ106">
         <f t="shared" ca="1" si="16"/>
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="ALA106">
         <f t="shared" ca="1" si="16"/>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="ALB106">
         <f t="shared" ca="1" si="16"/>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="ALC106">
         <f t="shared" ca="1" si="16"/>
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="ALD106">
         <f t="shared" ca="1" si="16"/>
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="ALE106">
         <f t="shared" ca="1" si="16"/>
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="ALF106">
         <f t="shared" ca="1" si="16"/>
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="ALG106">
         <f t="shared" ca="1" si="16"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="ALH106">
         <f t="shared" ca="1" si="16"/>
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="ALI106">
         <f t="shared" ca="1" si="16"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="ALJ106">
         <f t="shared" ca="1" si="16"/>
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="ALK106">
         <f t="shared" ca="1" si="16"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="ALL106">
         <f t="shared" ca="1" si="16"/>
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:1000">

--- a/excel/06.xlsx
+++ b/excel/06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yabuki\Dropbox\it-chiba\データ解析入門\analysis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CDEBD5-1697-44D3-8B55-9874775A0DCE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B48077-51A5-42A3-9059-1DF5B653D62B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="4630" windowWidth="15300" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1329,7 +1329,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>←下限値はB146，上限値はA132（A146+A$133だと，数値計算の誤差が蓄積し，ちょうど最大値にならない危険がある．）</t>
+    <t>←下限値はB146，上限値はA132（A147+A$133だと，数値計算の誤差が蓄積し，ちょうど最大値にならない危険がある．）</t>
     <rPh sb="1" eb="3">
       <t>カゲン</t>
     </rPh>
@@ -1724,7 +1724,7 @@
   <dimension ref="A1:ALL217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147"/>
+      <selection activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2445,323 +2445,323 @@
     <row r="106" spans="1:1000">
       <c r="A106">
         <f ca="1">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B106">
         <f t="shared" ref="B106:BM106" ca="1" si="1">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="G106">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="I106">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="J106">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K106">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="L106">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="M106">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="N106">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="O106">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P106">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="Q106">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="R106">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="S106">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="T106">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="U106">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="V106">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="W106">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="X106">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Y106">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="Z106">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="AA106">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AB106">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="AC106">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="AD106">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="AE106">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AF106">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AG106">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AH106">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AI106">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AJ106">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AK106">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="AL106">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="AM106">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="AN106">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AO106">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="AP106">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="AQ106">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="AR106">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="AS106">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AT106">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="AU106">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AV106">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AW106">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AX106">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="AY106">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="AZ106">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="BA106">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="BB106">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BC106">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BD106">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="BE106">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="BF106">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="BG106">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="BH106">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="BI106">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="BJ106">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="BK106">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="BL106">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BM106">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="BN106">
         <f t="shared" ref="BN106:DY106" ca="1" si="2">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="BO106">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="BP106">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="BQ106">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="BR106">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="BS106">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="BT106">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="BU106">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="BV106">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="BW106">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="BX106">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="BY106">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="BZ106">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="CA106">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="CB106">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="CC106">
         <f t="shared" ca="1" si="2"/>
@@ -2769,251 +2769,251 @@
       </c>
       <c r="CD106">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="CE106">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="CF106">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="CG106">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="CH106">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="CI106">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="CJ106">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="CK106">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="CL106">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="CM106">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="CN106">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="CO106">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="CP106">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="CQ106">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="CR106">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="CS106">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="CT106">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="CU106">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="CV106">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="CW106">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="CX106">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CY106">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="CZ106">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="DA106">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="DB106">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="DC106">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="DD106">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="DE106">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="DF106">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="DG106">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="DH106">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="DI106">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="DJ106">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="DK106">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="DL106">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="DM106">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="DN106">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="DO106">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="DP106">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="DQ106">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="DR106">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="DS106">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="DT106">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="DU106">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="DV106">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="DW106">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="DX106">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="DY106">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="DZ106">
         <f t="shared" ref="DZ106:GK106" ca="1" si="3">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="EA106">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="EB106">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="EC106">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="ED106">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="EE106">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="EF106">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="EG106">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="EH106">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="EI106">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="EJ106">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="EK106">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="EL106">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="EM106">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="EN106">
         <f t="shared" ca="1" si="3"/>
@@ -3021,11 +3021,11 @@
       </c>
       <c r="EO106">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="EP106">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="EQ106">
         <f t="shared" ca="1" si="3"/>
@@ -3033,151 +3033,151 @@
       </c>
       <c r="ER106">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="ES106">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="ET106">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="EU106">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="EV106">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="EW106">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="EX106">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="EY106">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="EZ106">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="FA106">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="FB106">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="FC106">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="FD106">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="FE106">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="FF106">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="FG106">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="FH106">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="FI106">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="FJ106">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="FK106">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="FL106">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="FM106">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="FN106">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="FO106">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="FP106">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="FQ106">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="FR106">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="FS106">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="FT106">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="FU106">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="FV106">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="FW106">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="FX106">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="FY106">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="FZ106">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="GA106">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="GB106">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="GC106">
         <f>INT($B$7/100000)</f>
@@ -3197,555 +3197,555 @@
       </c>
       <c r="GG106">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="GH106">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="GI106">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="GJ106">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="GK106">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="GL106">
         <f t="shared" ref="GL106:IW106" ca="1" si="4">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="GM106">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="GN106">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="GO106">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="GP106">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="GQ106">
         <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="GR106">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="GS106">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="GT106">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="GU106">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="GV106">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="GW106">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="GX106">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="GY106">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="GZ106">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="HA106">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="HB106">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="HC106">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="HD106">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="HE106">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="HF106">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="HG106">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="HH106">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="HI106">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="HJ106">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="HK106">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="HL106">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="HM106">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="HN106">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="HO106">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="HP106">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="HQ106">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="HR106">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="HS106">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="HT106">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="HU106">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="HV106">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="HW106">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="HX106">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="HY106">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="HZ106">
         <f t="shared" ca="1" si="4"/>
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="IA106">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="IB106">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="IC106">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="ID106">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="IE106">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="IF106">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="IG106">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="IH106">
         <f t="shared" ca="1" si="4"/>
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="II106">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="IJ106">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="IK106">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="IL106">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="IM106">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="IN106">
         <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IO106">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="IP106">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="IQ106">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="IR106">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="IS106">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="IT106">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="IU106">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="IV106">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="IW106">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="IX106">
         <f t="shared" ref="IX106:LI106" ca="1" si="5">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="IY106">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="IZ106">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="JA106">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="JB106">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="JC106">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="JD106">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="JE106">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="JF106">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="JG106">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="JH106">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="JI106">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="JJ106">
         <f t="shared" ca="1" si="5"/>
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="JK106">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="JL106">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="JM106">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="JN106">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="JO106">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="JP106">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="JQ106">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="JR106">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="JS106">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="JT106">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="JU106">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="JV106">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="JW106">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="JX106">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="JY106">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="JZ106">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="KA106">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="KB106">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="KC106">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="KD106">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="KE106">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="KF106">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="KG106">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="KH106">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="KI106">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="KJ106">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="KK106">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="KL106">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="KM106">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="KN106">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="KO106">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="KP106">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="KQ106">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="KR106">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="KS106">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="KT106">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="KU106">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="KV106">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="KW106">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="KX106">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="KY106">
         <f t="shared" ca="1" si="5"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="KZ106">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="LA106">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="LB106">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="LC106">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="LD106">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="LE106">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="LF106">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="LG106">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="LH106">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="LI106">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="LJ106">
         <f t="shared" ref="LJ106:NU106" ca="1" si="6">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="LK106">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="LL106">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="LM106">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="LN106">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="LO106">
         <f t="shared" ca="1" si="6"/>
@@ -3753,667 +3753,667 @@
       </c>
       <c r="LP106">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="LQ106">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="LR106">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="LS106">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="LT106">
         <f t="shared" ca="1" si="6"/>
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="LU106">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="LV106">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="LW106">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="LX106">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="LY106">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="LZ106">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="MA106">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="MB106">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="MC106">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="MD106">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="ME106">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="MF106">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="MG106">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="MH106">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="MI106">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="MJ106">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="MK106">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="ML106">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="MM106">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="MN106">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="MO106">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="MP106">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="MQ106">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="MR106">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="MS106">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="MT106">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="MU106">
         <f t="shared" ca="1" si="6"/>
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="MV106">
         <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="MW106">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="MX106">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="MY106">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="MZ106">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="NA106">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="NB106">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="NC106">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="ND106">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="NE106">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="NF106">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="NG106">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="NH106">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="NI106">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="NJ106">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="NK106">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="NL106">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="NM106">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="NN106">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="NO106">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NP106">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="NQ106">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="NR106">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="NS106">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="NT106">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="NU106">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="NV106">
         <f t="shared" ref="NV106:QG106" ca="1" si="7">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="NW106">
         <f t="shared" ca="1" si="7"/>
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="NX106">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="NY106">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="NZ106">
         <f t="shared" ca="1" si="7"/>
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="OA106">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="OB106">
         <f t="shared" ca="1" si="7"/>
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="OC106">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="OD106">
         <f t="shared" ca="1" si="7"/>
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="OE106">
         <f t="shared" ca="1" si="7"/>
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="OF106">
         <f t="shared" ca="1" si="7"/>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="OG106">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="OH106">
         <f t="shared" ca="1" si="7"/>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="OI106">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="OJ106">
         <f t="shared" ca="1" si="7"/>
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="OK106">
         <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="OL106">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="OM106">
         <f t="shared" ca="1" si="7"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="ON106">
         <f t="shared" ca="1" si="7"/>
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="OO106">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="OP106">
         <f t="shared" ca="1" si="7"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="OQ106">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="OR106">
         <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="OS106">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="OT106">
         <f t="shared" ca="1" si="7"/>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="OU106">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="OV106">
         <f t="shared" ca="1" si="7"/>
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="OW106">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="OX106">
         <f t="shared" ca="1" si="7"/>
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="OY106">
         <f t="shared" ca="1" si="7"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="OZ106">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="PA106">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="PB106">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="PC106">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="PD106">
         <f t="shared" ca="1" si="7"/>
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="PE106">
         <f t="shared" ca="1" si="7"/>
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="PF106">
         <f t="shared" ca="1" si="7"/>
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="PG106">
         <f t="shared" ca="1" si="7"/>
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="PH106">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="PI106">
         <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="PJ106">
         <f t="shared" ca="1" si="7"/>
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="PK106">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="PL106">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="PM106">
         <f t="shared" ca="1" si="7"/>
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="PN106">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="PO106">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="PP106">
         <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="PQ106">
         <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="PR106">
         <f t="shared" ca="1" si="7"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="PS106">
         <f t="shared" ca="1" si="7"/>
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="PT106">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="PU106">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="PV106">
         <f t="shared" ca="1" si="7"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="PW106">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="PX106">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="PY106">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="PZ106">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="QA106">
         <f t="shared" ca="1" si="7"/>
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="QB106">
         <f t="shared" ca="1" si="7"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="QC106">
         <f t="shared" ca="1" si="7"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="QD106">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="QE106">
         <f t="shared" ca="1" si="7"/>
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="QF106">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="QG106">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="QH106">
         <f t="shared" ref="QH106:SS106" ca="1" si="8">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="QI106">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="QJ106">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="QK106">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="QL106">
         <f t="shared" ca="1" si="8"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="QM106">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="QN106">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="QO106">
         <f t="shared" ca="1" si="8"/>
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="QP106">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="QQ106">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="QR106">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="QS106">
         <f t="shared" ca="1" si="8"/>
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="QT106">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="QU106">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="QV106">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="QW106">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="QX106">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="QY106">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="QZ106">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="RA106">
         <f t="shared" ca="1" si="8"/>
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="RB106">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="RC106">
         <f t="shared" ca="1" si="8"/>
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="RD106">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="RE106">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="RF106">
         <f t="shared" ca="1" si="8"/>
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="RG106">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="RH106">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="RI106">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="RJ106">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="RK106">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="RL106">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="RM106">
         <f t="shared" ca="1" si="8"/>
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="RN106">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="RO106">
         <f t="shared" ca="1" si="8"/>
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="RP106">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="RQ106">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="RR106">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="RS106">
         <f t="shared" ca="1" si="8"/>
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="RT106">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="RU106">
         <f t="shared" ca="1" si="8"/>
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="RV106">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="RW106">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="RX106">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="RY106">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="RZ106">
         <f t="shared" ca="1" si="8"/>
@@ -4421,251 +4421,251 @@
       </c>
       <c r="SA106">
         <f t="shared" ca="1" si="8"/>
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="SB106">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="SC106">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="SD106">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="SE106">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="SF106">
         <f t="shared" ca="1" si="8"/>
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="SG106">
         <f t="shared" ca="1" si="8"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SH106">
         <f t="shared" ca="1" si="8"/>
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="SI106">
         <f t="shared" ca="1" si="8"/>
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="SJ106">
         <f t="shared" ca="1" si="8"/>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="SK106">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="SL106">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="SM106">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="SN106">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="SO106">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="SP106">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="SQ106">
         <f t="shared" ca="1" si="8"/>
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="SR106">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="SS106">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="ST106">
         <f t="shared" ref="ST106:VE106" ca="1" si="9">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="SU106">
         <f t="shared" ca="1" si="9"/>
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="SV106">
         <f t="shared" ca="1" si="9"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="SW106">
         <f t="shared" ca="1" si="9"/>
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="SX106">
         <f t="shared" ca="1" si="9"/>
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="SY106">
         <f t="shared" ca="1" si="9"/>
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="SZ106">
         <f t="shared" ca="1" si="9"/>
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="TA106">
         <f t="shared" ca="1" si="9"/>
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="TB106">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="TC106">
         <f t="shared" ca="1" si="9"/>
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="TD106">
         <f t="shared" ca="1" si="9"/>
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="TE106">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="TF106">
         <f t="shared" ca="1" si="9"/>
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="TG106">
         <f t="shared" ca="1" si="9"/>
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="TH106">
         <f t="shared" ca="1" si="9"/>
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="TI106">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="TJ106">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="TK106">
         <f t="shared" ca="1" si="9"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="TL106">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="TM106">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="TN106">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="TO106">
         <f t="shared" ca="1" si="9"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="TP106">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="TQ106">
         <f t="shared" ca="1" si="9"/>
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="TR106">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="TS106">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="TT106">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="TU106">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="TV106">
         <f t="shared" ca="1" si="9"/>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="TW106">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="TX106">
         <f t="shared" ca="1" si="9"/>
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="TY106">
         <f t="shared" ca="1" si="9"/>
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="TZ106">
         <f t="shared" ca="1" si="9"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="UA106">
         <f t="shared" ca="1" si="9"/>
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="UB106">
         <f t="shared" ca="1" si="9"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="UC106">
         <f t="shared" ca="1" si="9"/>
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="UD106">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="UE106">
         <f t="shared" ca="1" si="9"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="UF106">
         <f t="shared" ca="1" si="9"/>
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="UG106">
         <f t="shared" ca="1" si="9"/>
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="UH106">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="UI106">
         <f t="shared" ca="1" si="9"/>
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="UJ106">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="UK106">
         <f t="shared" ca="1" si="9"/>
@@ -4673,255 +4673,255 @@
       </c>
       <c r="UL106">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="UM106">
         <f t="shared" ca="1" si="9"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="UN106">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="UO106">
         <f t="shared" ca="1" si="9"/>
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="UP106">
         <f t="shared" ca="1" si="9"/>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="UQ106">
         <f t="shared" ca="1" si="9"/>
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="UR106">
         <f t="shared" ca="1" si="9"/>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="US106">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="UT106">
         <f t="shared" ca="1" si="9"/>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="UU106">
         <f t="shared" ca="1" si="9"/>
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="UV106">
         <f t="shared" ca="1" si="9"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="UW106">
         <f t="shared" ca="1" si="9"/>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="UX106">
         <f t="shared" ca="1" si="9"/>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="UY106">
         <f t="shared" ca="1" si="9"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="UZ106">
         <f t="shared" ca="1" si="9"/>
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="VA106">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="VB106">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="VC106">
         <f t="shared" ca="1" si="9"/>
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="VD106">
         <f t="shared" ca="1" si="9"/>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="VE106">
         <f t="shared" ca="1" si="9"/>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="VF106">
         <f t="shared" ref="VF106:XQ106" ca="1" si="10">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="VG106">
         <f t="shared" ca="1" si="10"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="VH106">
         <f t="shared" ca="1" si="10"/>
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="VI106">
         <f t="shared" ca="1" si="10"/>
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="VJ106">
         <f t="shared" ca="1" si="10"/>
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="VK106">
         <f t="shared" ca="1" si="10"/>
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="VL106">
         <f t="shared" ca="1" si="10"/>
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="VM106">
         <f t="shared" ca="1" si="10"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="VN106">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="VO106">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="VP106">
         <f t="shared" ca="1" si="10"/>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="VQ106">
         <f t="shared" ca="1" si="10"/>
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="VR106">
         <f t="shared" ca="1" si="10"/>
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="VS106">
         <f t="shared" ca="1" si="10"/>
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="VT106">
         <f t="shared" ca="1" si="10"/>
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="VU106">
         <f t="shared" ca="1" si="10"/>
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="VV106">
         <f t="shared" ca="1" si="10"/>
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="VW106">
         <f t="shared" ca="1" si="10"/>
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="VX106">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VY106">
         <f t="shared" ca="1" si="10"/>
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="VZ106">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="WA106">
         <f t="shared" ca="1" si="10"/>
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="WB106">
         <f t="shared" ca="1" si="10"/>
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="WC106">
         <f t="shared" ca="1" si="10"/>
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="WD106">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="WE106">
         <f t="shared" ca="1" si="10"/>
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="WF106">
         <f t="shared" ca="1" si="10"/>
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="WG106">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="WH106">
         <f t="shared" ca="1" si="10"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="WI106">
         <f t="shared" ca="1" si="10"/>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="WJ106">
         <f t="shared" ca="1" si="10"/>
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="WK106">
         <f t="shared" ca="1" si="10"/>
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="WL106">
         <f t="shared" ca="1" si="10"/>
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="WM106">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="WN106">
         <f t="shared" ca="1" si="10"/>
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="WO106">
         <f t="shared" ca="1" si="10"/>
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="WP106">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="WQ106">
         <f t="shared" ca="1" si="10"/>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="WR106">
         <f t="shared" ca="1" si="10"/>
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="WS106">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="WT106">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="WU106">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="WV106">
         <f t="shared" ca="1" si="10"/>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="WW106">
         <f t="shared" ca="1" si="10"/>
@@ -4929,271 +4929,271 @@
       </c>
       <c r="WX106">
         <f t="shared" ca="1" si="10"/>
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="WY106">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="WZ106">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="XA106">
         <f t="shared" ca="1" si="10"/>
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="XB106">
         <f t="shared" ca="1" si="10"/>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="XC106">
         <f t="shared" ca="1" si="10"/>
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="XD106">
         <f t="shared" ca="1" si="10"/>
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="XE106">
         <f t="shared" ca="1" si="10"/>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="XF106">
         <f t="shared" ca="1" si="10"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="XG106">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="XH106">
         <f t="shared" ca="1" si="10"/>
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="XI106">
         <f t="shared" ca="1" si="10"/>
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="XJ106">
         <f t="shared" ca="1" si="10"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="XK106">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="XL106">
         <f t="shared" ca="1" si="10"/>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="XM106">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="XN106">
         <f t="shared" ca="1" si="10"/>
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="XO106">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="XP106">
         <f t="shared" ca="1" si="10"/>
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="XQ106">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="XR106">
         <f t="shared" ref="XR106:AAC106" ca="1" si="11">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="XS106">
         <f t="shared" ca="1" si="11"/>
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="XT106">
         <f t="shared" ca="1" si="11"/>
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="XU106">
         <f t="shared" ca="1" si="11"/>
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="XV106">
         <f t="shared" ca="1" si="11"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="XW106">
         <f t="shared" ca="1" si="11"/>
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="XX106">
         <f t="shared" ca="1" si="11"/>
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="XY106">
         <f t="shared" ca="1" si="11"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="XZ106">
         <f t="shared" ca="1" si="11"/>
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="YA106">
         <f t="shared" ca="1" si="11"/>
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="YB106">
         <f t="shared" ca="1" si="11"/>
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="YC106">
         <f t="shared" ca="1" si="11"/>
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="YD106">
         <f t="shared" ca="1" si="11"/>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="YE106">
         <f t="shared" ca="1" si="11"/>
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="YF106">
         <f t="shared" ca="1" si="11"/>
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="YG106">
         <f t="shared" ca="1" si="11"/>
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="YH106">
         <f t="shared" ca="1" si="11"/>
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="YI106">
         <f t="shared" ca="1" si="11"/>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="YJ106">
         <f t="shared" ca="1" si="11"/>
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="YK106">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="YL106">
         <f t="shared" ca="1" si="11"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="YM106">
         <f t="shared" ca="1" si="11"/>
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="YN106">
         <f t="shared" ca="1" si="11"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="YO106">
         <f t="shared" ca="1" si="11"/>
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="YP106">
         <f t="shared" ca="1" si="11"/>
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="YQ106">
         <f t="shared" ca="1" si="11"/>
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="YR106">
         <f t="shared" ca="1" si="11"/>
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="YS106">
         <f t="shared" ca="1" si="11"/>
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="YT106">
         <f t="shared" ca="1" si="11"/>
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="YU106">
         <f t="shared" ca="1" si="11"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="YV106">
         <f t="shared" ca="1" si="11"/>
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="YW106">
         <f t="shared" ca="1" si="11"/>
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="YX106">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="YY106">
         <f t="shared" ca="1" si="11"/>
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="YZ106">
         <f t="shared" ca="1" si="11"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="ZA106">
         <f t="shared" ca="1" si="11"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="ZB106">
         <f t="shared" ca="1" si="11"/>
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="ZC106">
         <f t="shared" ca="1" si="11"/>
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="ZD106">
         <f t="shared" ca="1" si="11"/>
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="ZE106">
         <f t="shared" ca="1" si="11"/>
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="ZF106">
         <f t="shared" ca="1" si="11"/>
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="ZG106">
         <f t="shared" ca="1" si="11"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="ZH106">
         <f t="shared" ca="1" si="11"/>
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="ZI106">
         <f t="shared" ca="1" si="11"/>
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="ZJ106">
         <f t="shared" ca="1" si="11"/>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="ZK106">
         <f t="shared" ca="1" si="11"/>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="ZL106">
         <f t="shared" ca="1" si="11"/>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="ZM106">
         <f t="shared" ca="1" si="11"/>
@@ -5201,963 +5201,963 @@
       </c>
       <c r="ZN106">
         <f t="shared" ca="1" si="11"/>
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="ZO106">
         <f t="shared" ca="1" si="11"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="ZP106">
         <f t="shared" ca="1" si="11"/>
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="ZQ106">
         <f t="shared" ca="1" si="11"/>
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="ZR106">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="ZS106">
         <f t="shared" ca="1" si="11"/>
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="ZT106">
         <f t="shared" ca="1" si="11"/>
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="ZU106">
         <f t="shared" ca="1" si="11"/>
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="ZV106">
         <f t="shared" ca="1" si="11"/>
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="ZW106">
         <f t="shared" ca="1" si="11"/>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="ZX106">
         <f t="shared" ca="1" si="11"/>
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="ZY106">
         <f t="shared" ca="1" si="11"/>
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="ZZ106">
         <f t="shared" ca="1" si="11"/>
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="AAA106">
         <f t="shared" ca="1" si="11"/>
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AAB106">
         <f t="shared" ca="1" si="11"/>
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="AAC106">
         <f t="shared" ca="1" si="11"/>
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="AAD106">
         <f t="shared" ref="AAD106:ACO106" ca="1" si="12">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AAE106">
         <f t="shared" ca="1" si="12"/>
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="AAF106">
         <f t="shared" ca="1" si="12"/>
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="AAG106">
         <f t="shared" ca="1" si="12"/>
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="AAH106">
         <f t="shared" ca="1" si="12"/>
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="AAI106">
         <f t="shared" ca="1" si="12"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AAJ106">
         <f t="shared" ca="1" si="12"/>
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AAK106">
         <f t="shared" ca="1" si="12"/>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AAL106">
         <f t="shared" ca="1" si="12"/>
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AAM106">
         <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AAN106">
         <f t="shared" ca="1" si="12"/>
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AAO106">
         <f t="shared" ca="1" si="12"/>
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="AAP106">
         <f t="shared" ca="1" si="12"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AAQ106">
         <f t="shared" ca="1" si="12"/>
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AAR106">
         <f t="shared" ca="1" si="12"/>
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AAS106">
         <f t="shared" ca="1" si="12"/>
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="AAT106">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="AAU106">
         <f t="shared" ca="1" si="12"/>
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AAV106">
         <f t="shared" ca="1" si="12"/>
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AAW106">
         <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AAX106">
         <f t="shared" ca="1" si="12"/>
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="AAY106">
         <f t="shared" ca="1" si="12"/>
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="AAZ106">
         <f t="shared" ca="1" si="12"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="ABA106">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="ABB106">
         <f t="shared" ca="1" si="12"/>
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="ABC106">
         <f t="shared" ca="1" si="12"/>
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="ABD106">
         <f t="shared" ca="1" si="12"/>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="ABE106">
         <f t="shared" ca="1" si="12"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="ABF106">
         <f t="shared" ca="1" si="12"/>
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="ABG106">
         <f t="shared" ca="1" si="12"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="ABH106">
         <f t="shared" ca="1" si="12"/>
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="ABI106">
         <f t="shared" ca="1" si="12"/>
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="ABJ106">
         <f t="shared" ca="1" si="12"/>
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="ABK106">
         <f t="shared" ca="1" si="12"/>
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="ABL106">
         <f t="shared" ca="1" si="12"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="ABM106">
         <f t="shared" ca="1" si="12"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="ABN106">
         <f t="shared" ca="1" si="12"/>
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="ABO106">
         <f t="shared" ca="1" si="12"/>
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="ABP106">
         <f t="shared" ca="1" si="12"/>
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="ABQ106">
         <f t="shared" ca="1" si="12"/>
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="ABR106">
         <f t="shared" ca="1" si="12"/>
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="ABS106">
         <f t="shared" ca="1" si="12"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="ABT106">
         <f t="shared" ca="1" si="12"/>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="ABU106">
         <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="ABV106">
         <f t="shared" ca="1" si="12"/>
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="ABW106">
         <f t="shared" ca="1" si="12"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="ABX106">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="ABY106">
         <f t="shared" ca="1" si="12"/>
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="ABZ106">
         <f t="shared" ca="1" si="12"/>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="ACA106">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="ACB106">
         <f t="shared" ca="1" si="12"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="ACC106">
         <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="ACD106">
         <f t="shared" ca="1" si="12"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="ACE106">
         <f t="shared" ca="1" si="12"/>
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="ACF106">
         <f t="shared" ca="1" si="12"/>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="ACG106">
         <f t="shared" ca="1" si="12"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="ACH106">
         <f t="shared" ca="1" si="12"/>
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="ACI106">
         <f t="shared" ca="1" si="12"/>
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="ACJ106">
         <f t="shared" ca="1" si="12"/>
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="ACK106">
         <f t="shared" ca="1" si="12"/>
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="ACL106">
         <f t="shared" ca="1" si="12"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="ACM106">
         <f t="shared" ca="1" si="12"/>
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="ACN106">
         <f t="shared" ca="1" si="12"/>
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="ACO106">
         <f t="shared" ca="1" si="12"/>
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="ACP106">
         <f t="shared" ref="ACP106:AFA106" ca="1" si="13">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="ACQ106">
         <f t="shared" ca="1" si="13"/>
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="ACR106">
         <f t="shared" ca="1" si="13"/>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="ACS106">
         <f t="shared" ca="1" si="13"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="ACT106">
         <f t="shared" ca="1" si="13"/>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="ACU106">
         <f t="shared" ca="1" si="13"/>
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="ACV106">
         <f t="shared" ca="1" si="13"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="ACW106">
         <f t="shared" ca="1" si="13"/>
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="ACX106">
         <f t="shared" ca="1" si="13"/>
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="ACY106">
         <f t="shared" ca="1" si="13"/>
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="ACZ106">
         <f t="shared" ca="1" si="13"/>
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="ADA106">
         <f t="shared" ca="1" si="13"/>
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="ADB106">
         <f t="shared" ca="1" si="13"/>
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="ADC106">
         <f t="shared" ca="1" si="13"/>
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="ADD106">
         <f t="shared" ca="1" si="13"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="ADE106">
         <f t="shared" ca="1" si="13"/>
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="ADF106">
         <f t="shared" ca="1" si="13"/>
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="ADG106">
         <f t="shared" ca="1" si="13"/>
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="ADH106">
         <f t="shared" ca="1" si="13"/>
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="ADI106">
         <f t="shared" ca="1" si="13"/>
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="ADJ106">
         <f t="shared" ca="1" si="13"/>
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="ADK106">
         <f t="shared" ca="1" si="13"/>
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="ADL106">
         <f t="shared" ca="1" si="13"/>
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="ADM106">
         <f t="shared" ca="1" si="13"/>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="ADN106">
         <f t="shared" ca="1" si="13"/>
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="ADO106">
         <f t="shared" ca="1" si="13"/>
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="ADP106">
         <f t="shared" ca="1" si="13"/>
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="ADQ106">
         <f t="shared" ca="1" si="13"/>
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="ADR106">
         <f t="shared" ca="1" si="13"/>
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="ADS106">
         <f t="shared" ca="1" si="13"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="ADT106">
         <f t="shared" ca="1" si="13"/>
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="ADU106">
         <f t="shared" ca="1" si="13"/>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="ADV106">
         <f t="shared" ca="1" si="13"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="ADW106">
         <f t="shared" ca="1" si="13"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="ADX106">
         <f t="shared" ca="1" si="13"/>
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="ADY106">
         <f t="shared" ca="1" si="13"/>
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="ADZ106">
         <f t="shared" ca="1" si="13"/>
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="AEA106">
         <f t="shared" ca="1" si="13"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AEB106">
         <f t="shared" ca="1" si="13"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AEC106">
         <f t="shared" ca="1" si="13"/>
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="AED106">
         <f t="shared" ca="1" si="13"/>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AEE106">
         <f t="shared" ca="1" si="13"/>
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AEF106">
         <f t="shared" ca="1" si="13"/>
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="AEG106">
         <f t="shared" ca="1" si="13"/>
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="AEH106">
         <f t="shared" ca="1" si="13"/>
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="AEI106">
         <f t="shared" ca="1" si="13"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AEJ106">
         <f t="shared" ca="1" si="13"/>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AEK106">
         <f t="shared" ca="1" si="13"/>
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="AEL106">
         <f t="shared" ca="1" si="13"/>
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="AEM106">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AEN106">
         <f t="shared" ca="1" si="13"/>
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="AEO106">
         <f t="shared" ca="1" si="13"/>
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AEP106">
         <f t="shared" ca="1" si="13"/>
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AEQ106">
         <f t="shared" ca="1" si="13"/>
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AER106">
         <f t="shared" ca="1" si="13"/>
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="AES106">
         <f t="shared" ca="1" si="13"/>
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AET106">
         <f t="shared" ca="1" si="13"/>
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AEU106">
         <f t="shared" ca="1" si="13"/>
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="AEV106">
         <f t="shared" ca="1" si="13"/>
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AEW106">
         <f t="shared" ca="1" si="13"/>
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AEX106">
         <f t="shared" ca="1" si="13"/>
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="AEY106">
         <f t="shared" ca="1" si="13"/>
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="AEZ106">
         <f t="shared" ca="1" si="13"/>
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AFA106">
         <f t="shared" ca="1" si="13"/>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AFB106">
         <f t="shared" ref="AFB106:AHM106" ca="1" si="14">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AFC106">
         <f t="shared" ca="1" si="14"/>
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="AFD106">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AFE106">
         <f t="shared" ca="1" si="14"/>
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="AFF106">
         <f t="shared" ca="1" si="14"/>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AFG106">
         <f t="shared" ca="1" si="14"/>
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AFH106">
         <f t="shared" ca="1" si="14"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="AFI106">
         <f t="shared" ca="1" si="14"/>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AFJ106">
         <f t="shared" ca="1" si="14"/>
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="AFK106">
         <f t="shared" ca="1" si="14"/>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AFL106">
         <f t="shared" ca="1" si="14"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AFM106">
         <f t="shared" ca="1" si="14"/>
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AFN106">
         <f t="shared" ca="1" si="14"/>
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AFO106">
         <f t="shared" ca="1" si="14"/>
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="AFP106">
         <f t="shared" ca="1" si="14"/>
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AFQ106">
         <f t="shared" ca="1" si="14"/>
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="AFR106">
         <f t="shared" ca="1" si="14"/>
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AFS106">
         <f t="shared" ca="1" si="14"/>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AFT106">
         <f t="shared" ca="1" si="14"/>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AFU106">
         <f t="shared" ca="1" si="14"/>
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="AFV106">
         <f t="shared" ca="1" si="14"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AFW106">
         <f t="shared" ca="1" si="14"/>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AFX106">
         <f t="shared" ca="1" si="14"/>
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="AFY106">
         <f t="shared" ca="1" si="14"/>
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AFZ106">
         <f t="shared" ca="1" si="14"/>
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AGA106">
         <f t="shared" ca="1" si="14"/>
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="AGB106">
         <f t="shared" ca="1" si="14"/>
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="AGC106">
         <f t="shared" ca="1" si="14"/>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AGD106">
         <f t="shared" ca="1" si="14"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AGE106">
         <f t="shared" ca="1" si="14"/>
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="AGF106">
         <f t="shared" ca="1" si="14"/>
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="AGG106">
         <f t="shared" ca="1" si="14"/>
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AGH106">
         <f t="shared" ca="1" si="14"/>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AGI106">
         <f t="shared" ca="1" si="14"/>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AGJ106">
         <f t="shared" ca="1" si="14"/>
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="AGK106">
         <f t="shared" ca="1" si="14"/>
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AGL106">
         <f t="shared" ca="1" si="14"/>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="AGM106">
         <f t="shared" ca="1" si="14"/>
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="AGN106">
         <f t="shared" ca="1" si="14"/>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AGO106">
         <f t="shared" ca="1" si="14"/>
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AGP106">
         <f t="shared" ca="1" si="14"/>
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AGQ106">
         <f t="shared" ca="1" si="14"/>
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AGR106">
         <f t="shared" ca="1" si="14"/>
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="AGS106">
         <f t="shared" ca="1" si="14"/>
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AGT106">
         <f t="shared" ca="1" si="14"/>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AGU106">
         <f t="shared" ca="1" si="14"/>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AGV106">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AGW106">
         <f t="shared" ca="1" si="14"/>
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="AGX106">
         <f t="shared" ca="1" si="14"/>
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AGY106">
         <f t="shared" ca="1" si="14"/>
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="AGZ106">
         <f t="shared" ca="1" si="14"/>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="AHA106">
         <f t="shared" ca="1" si="14"/>
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AHB106">
         <f t="shared" ca="1" si="14"/>
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="AHC106">
         <f t="shared" ca="1" si="14"/>
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="AHD106">
         <f t="shared" ca="1" si="14"/>
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AHE106">
         <f t="shared" ca="1" si="14"/>
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="AHF106">
         <f t="shared" ca="1" si="14"/>
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="AHG106">
         <f t="shared" ca="1" si="14"/>
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="AHH106">
         <f t="shared" ca="1" si="14"/>
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="AHI106">
         <f t="shared" ca="1" si="14"/>
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="AHJ106">
         <f t="shared" ca="1" si="14"/>
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="AHK106">
         <f t="shared" ca="1" si="14"/>
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AHL106">
         <f t="shared" ca="1" si="14"/>
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AHM106">
         <f t="shared" ca="1" si="14"/>
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="AHN106">
         <f t="shared" ref="AHN106:AJY106" ca="1" si="15">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="AHO106">
         <f t="shared" ca="1" si="15"/>
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="AHP106">
         <f t="shared" ca="1" si="15"/>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AHQ106">
         <f t="shared" ca="1" si="15"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AHR106">
         <f t="shared" ca="1" si="15"/>
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AHS106">
         <f t="shared" ca="1" si="15"/>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AHT106">
         <f t="shared" ca="1" si="15"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AHU106">
         <f t="shared" ca="1" si="15"/>
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="AHV106">
         <f t="shared" ca="1" si="15"/>
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="AHW106">
         <f t="shared" ca="1" si="15"/>
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="AHX106">
         <f t="shared" ca="1" si="15"/>
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="AHY106">
         <f t="shared" ca="1" si="15"/>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AHZ106">
         <f t="shared" ca="1" si="15"/>
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="AIA106">
         <f t="shared" ca="1" si="15"/>
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AIB106">
         <f t="shared" ca="1" si="15"/>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AIC106">
         <f t="shared" ca="1" si="15"/>
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AID106">
         <f t="shared" ca="1" si="15"/>
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="AIE106">
         <f t="shared" ca="1" si="15"/>
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="AIF106">
         <f t="shared" ca="1" si="15"/>
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="AIG106">
         <f t="shared" ca="1" si="15"/>
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="AIH106">
         <f t="shared" ca="1" si="15"/>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AII106">
         <f t="shared" ca="1" si="15"/>
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AIJ106">
         <f t="shared" ca="1" si="15"/>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AIK106">
         <f t="shared" ca="1" si="15"/>
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AIL106">
         <f t="shared" ca="1" si="15"/>
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="AIM106">
         <f t="shared" ca="1" si="15"/>
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="AIN106">
         <f t="shared" ca="1" si="15"/>
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="AIO106">
         <f t="shared" ca="1" si="15"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AIP106">
         <f t="shared" ca="1" si="15"/>
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="AIQ106">
         <f t="shared" ca="1" si="15"/>
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AIR106">
         <f t="shared" ca="1" si="15"/>
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="AIS106">
         <f t="shared" ca="1" si="15"/>
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="AIT106">
         <f t="shared" ca="1" si="15"/>
@@ -6165,51 +6165,51 @@
       </c>
       <c r="AIU106">
         <f t="shared" ca="1" si="15"/>
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="AIV106">
         <f t="shared" ca="1" si="15"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="AIW106">
         <f t="shared" ca="1" si="15"/>
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="AIX106">
         <f t="shared" ca="1" si="15"/>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AIY106">
         <f t="shared" ca="1" si="15"/>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AIZ106">
         <f t="shared" ca="1" si="15"/>
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="AJA106">
         <f t="shared" ca="1" si="15"/>
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AJB106">
         <f t="shared" ca="1" si="15"/>
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="AJC106">
         <f t="shared" ca="1" si="15"/>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AJD106">
         <f t="shared" ca="1" si="15"/>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AJE106">
         <f t="shared" ca="1" si="15"/>
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="AJF106">
         <f t="shared" ca="1" si="15"/>
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="AJG106">
         <f t="shared" ca="1" si="15"/>
@@ -6217,31 +6217,31 @@
       </c>
       <c r="AJH106">
         <f t="shared" ca="1" si="15"/>
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="AJI106">
         <f t="shared" ca="1" si="15"/>
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="AJJ106">
         <f t="shared" ca="1" si="15"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJK106">
         <f t="shared" ca="1" si="15"/>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AJL106">
         <f t="shared" ca="1" si="15"/>
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AJM106">
         <f t="shared" ca="1" si="15"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="AJN106">
         <f t="shared" ca="1" si="15"/>
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJO106">
         <f t="shared" ca="1" si="15"/>
@@ -6249,199 +6249,199 @@
       </c>
       <c r="AJP106">
         <f t="shared" ca="1" si="15"/>
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AJQ106">
         <f t="shared" ca="1" si="15"/>
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="AJR106">
         <f t="shared" ca="1" si="15"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AJS106">
         <f t="shared" ca="1" si="15"/>
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AJT106">
         <f t="shared" ca="1" si="15"/>
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="AJU106">
         <f t="shared" ca="1" si="15"/>
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJV106">
         <f t="shared" ca="1" si="15"/>
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="AJW106">
         <f t="shared" ca="1" si="15"/>
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="AJX106">
         <f t="shared" ca="1" si="15"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AJY106">
         <f t="shared" ca="1" si="15"/>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="AJZ106">
         <f t="shared" ref="AJZ106:ALL106" ca="1" si="16">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="AKA106">
         <f t="shared" ca="1" si="16"/>
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AKB106">
         <f t="shared" ca="1" si="16"/>
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="AKC106">
         <f t="shared" ca="1" si="16"/>
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="AKD106">
         <f t="shared" ca="1" si="16"/>
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="AKE106">
         <f t="shared" ca="1" si="16"/>
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="AKF106">
         <f t="shared" ca="1" si="16"/>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AKG106">
         <f t="shared" ca="1" si="16"/>
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AKH106">
         <f t="shared" ca="1" si="16"/>
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AKI106">
         <f t="shared" ca="1" si="16"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AKJ106">
         <f t="shared" ca="1" si="16"/>
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="AKK106">
         <f t="shared" ca="1" si="16"/>
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AKL106">
         <f t="shared" ca="1" si="16"/>
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="AKM106">
         <f t="shared" ca="1" si="16"/>
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="AKN106">
         <f t="shared" ca="1" si="16"/>
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="AKO106">
         <f t="shared" ca="1" si="16"/>
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="AKP106">
         <f t="shared" ca="1" si="16"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AKQ106">
         <f t="shared" ca="1" si="16"/>
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AKR106">
         <f t="shared" ca="1" si="16"/>
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AKS106">
         <f t="shared" ca="1" si="16"/>
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="AKT106">
         <f t="shared" ca="1" si="16"/>
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AKU106">
         <f t="shared" ca="1" si="16"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AKV106">
         <f t="shared" ca="1" si="16"/>
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AKW106">
         <f t="shared" ca="1" si="16"/>
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AKX106">
         <f t="shared" ca="1" si="16"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AKY106">
         <f t="shared" ca="1" si="16"/>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AKZ106">
         <f t="shared" ca="1" si="16"/>
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="ALA106">
         <f t="shared" ca="1" si="16"/>
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="ALB106">
         <f t="shared" ca="1" si="16"/>
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="ALC106">
         <f t="shared" ca="1" si="16"/>
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="ALD106">
         <f t="shared" ca="1" si="16"/>
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="ALE106">
         <f t="shared" ca="1" si="16"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="ALF106">
         <f t="shared" ca="1" si="16"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="ALG106">
         <f t="shared" ca="1" si="16"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="ALH106">
         <f t="shared" ca="1" si="16"/>
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="ALI106">
         <f t="shared" ca="1" si="16"/>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="ALJ106">
         <f t="shared" ca="1" si="16"/>
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="ALK106">
         <f t="shared" ca="1" si="16"/>
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="ALL106">
         <f t="shared" ca="1" si="16"/>
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107" spans="1:1000">

--- a/excel/06.xlsx
+++ b/excel/06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yabuki\Dropbox\it-chiba\データ解析入門\analysis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B48077-51A5-42A3-9059-1DF5B653D62B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB57AB93-99B5-4D39-BDBB-6FD7FC1C5056}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="4630" windowWidth="15300" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4840" yWindow="4840" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="90">
   <si>
     <t>今日やること</t>
   </si>
@@ -318,19 +318,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>④データ配列はA59:J90である．キーボードで入力してもいいし，マウスで選択してもいい．</t>
-    <rPh sb="4" eb="6">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>⑤区間配列はA61:A70である．</t>
     <rPh sb="1" eb="3">
       <t>クカン</t>
@@ -1359,6 +1346,53 @@
     </rPh>
     <rPh sb="56" eb="58">
       <t>キケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←0点以上10点以下の人数は2人（0点と5点）なので，「2」と入力する．</t>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④データ配列はA59:J59である．キーボードで入力してもいいし，マウスで選択してもいい．入力したらコンマ「,」</t>
+    <rPh sb="4" eb="6">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1723,8 +1757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ALL217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D148" sqref="D148"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1850,7 +1884,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1969,27 +2003,27 @@
         <v>19</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="E31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2004,7 +2038,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2160,7 +2194,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2208,7 +2242,7 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2244,7 +2278,7 @@
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="2" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2253,7 +2287,7 @@
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2262,7 +2296,7 @@
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2291,7 +2325,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2375,62 +2409,62 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:1000">
       <c r="A97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:1000">
       <c r="A99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:1000">
       <c r="A100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" spans="1:1000">
       <c r="A101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:1000">
       <c r="A102" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E102">
         <f>1+LOG(1000,2)</f>
@@ -2439,745 +2473,745 @@
     </row>
     <row r="105" spans="1:1000">
       <c r="A105" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:1000">
       <c r="A106">
         <f ca="1">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B106">
         <f t="shared" ref="B106:BM106" ca="1" si="1">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G106">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="I106">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="J106">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K106">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="L106">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="M106">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="N106">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O106">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P106">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="Q106">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="R106">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="S106">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="T106">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="U106">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="V106">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="W106">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="X106">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="Y106">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="Z106">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="AA106">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="AB106">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="AC106">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="AD106">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="AE106">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AF106">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AG106">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AH106">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AI106">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ106">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AK106">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="AL106">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="AM106">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="AN106">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="AO106">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AP106">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="AQ106">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AR106">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="AS106">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="AT106">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="AU106">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AV106">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AW106">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AX106">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="AY106">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AZ106">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="BA106">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="BB106">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="BC106">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="BD106">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="BE106">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BF106">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="BG106">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="BH106">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="BI106">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="BJ106">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="BK106">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="BL106">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="BM106">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="BN106">
         <f t="shared" ref="BN106:DY106" ca="1" si="2">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BO106">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="BP106">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="BQ106">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="BR106">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="BS106">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="BT106">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="BU106">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="BV106">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="BW106">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="BX106">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="BY106">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="BZ106">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA106">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="CB106">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="CC106">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="CD106">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="CE106">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="CF106">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="CG106">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="CH106">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="CI106">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="CJ106">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="CK106">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="CL106">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="CM106">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="CN106">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="CO106">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="CP106">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="CQ106">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="CR106">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="CS106">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="CT106">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="CU106">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="CV106">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="CW106">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="CX106">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="CY106">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="CZ106">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="DA106">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="DB106">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="DC106">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="DD106">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="DE106">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="DF106">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="DG106">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="DH106">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="DI106">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="DJ106">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="DK106">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="DL106">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="DM106">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="DN106">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="DO106">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="DP106">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="DQ106">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="DR106">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="DS106">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="DT106">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="DU106">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="DV106">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="DW106">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="DX106">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="DY106">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="DZ106">
         <f t="shared" ref="DZ106:GK106" ca="1" si="3">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="EA106">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="EB106">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="EC106">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="ED106">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="EE106">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="EF106">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="EG106">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="EH106">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="EI106">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="EJ106">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="EK106">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="EL106">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="EM106">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="EN106">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="EO106">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="EP106">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="EQ106">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="ER106">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="ES106">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="ET106">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="EU106">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="EV106">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="EW106">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="EX106">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="EY106">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="EZ106">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="FA106">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="FB106">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="FC106">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="FD106">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="FE106">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="FF106">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="FG106">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="FH106">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="FI106">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="FJ106">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="FK106">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="FL106">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="FM106">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="FN106">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="FO106">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="FP106">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="FQ106">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="FR106">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="FS106">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="FT106">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="FU106">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="FV106">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="FW106">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="FX106">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="FY106">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="FZ106">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="GA106">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="GB106">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="GC106">
         <f>INT($B$7/100000)</f>
@@ -3197,247 +3231,247 @@
       </c>
       <c r="GG106">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="GH106">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="GI106">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="GJ106">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="GK106">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="GL106">
         <f t="shared" ref="GL106:IW106" ca="1" si="4">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="GM106">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="GN106">
         <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="GO106">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="GP106">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="GQ106">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="GR106">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="GS106">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="GT106">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="GU106">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="GV106">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="GW106">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="GX106">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="GY106">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="GZ106">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="HA106">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="HB106">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="HC106">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="HD106">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="HE106">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="HF106">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="HG106">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="HH106">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="HI106">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="HJ106">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="HK106">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="HL106">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="HM106">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="HN106">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="HO106">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="HP106">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="HQ106">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="HR106">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="HS106">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="HT106">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="HU106">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="HV106">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="HW106">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="HX106">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="HY106">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="HZ106">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="IA106">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="IB106">
         <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="IC106">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="ID106">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="IE106">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="IF106">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="IG106">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="IH106">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="II106">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="IJ106">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="IK106">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="IL106">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="IM106">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="IN106">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="IO106">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="IP106">
         <f t="shared" ca="1" si="4"/>
@@ -3445,267 +3479,267 @@
       </c>
       <c r="IQ106">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="IR106">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="IS106">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="IT106">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="IU106">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="IV106">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="IW106">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="IX106">
         <f t="shared" ref="IX106:LI106" ca="1" si="5">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="IY106">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="IZ106">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="JA106">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="JB106">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="JC106">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="JD106">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="JE106">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="JF106">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="JG106">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="JH106">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="JI106">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="JJ106">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="JK106">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="JL106">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="JM106">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="JN106">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="JO106">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="JP106">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="JQ106">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="JR106">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="JS106">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="JT106">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="JU106">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="JV106">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="JW106">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="JX106">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="JY106">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="JZ106">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="KA106">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="KB106">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="KC106">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="KD106">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="KE106">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="KF106">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="KG106">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="KH106">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="KI106">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="KJ106">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="KK106">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="KL106">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="KM106">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="KN106">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="KO106">
         <f t="shared" ca="1" si="5"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="KP106">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="KQ106">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="KR106">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="KS106">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="KT106">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="KU106">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="KV106">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="KW106">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="KX106">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="KY106">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="KZ106">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="LA106">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="LB106">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="LC106">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="LD106">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="LE106">
         <f t="shared" ca="1" si="5"/>
@@ -3713,547 +3747,547 @@
       </c>
       <c r="LF106">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="LG106">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="LH106">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="LI106">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="LJ106">
         <f t="shared" ref="LJ106:NU106" ca="1" si="6">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="LK106">
         <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="LL106">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="LM106">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="LN106">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="LO106">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="LP106">
         <f t="shared" ca="1" si="6"/>
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="LQ106">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="LR106">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="LS106">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="LT106">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="LU106">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="LV106">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="LW106">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="LX106">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="LY106">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="LZ106">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="MA106">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="MB106">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="MC106">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="MD106">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="ME106">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="MF106">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="MG106">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="MH106">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="MI106">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="MJ106">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="MK106">
         <f t="shared" ca="1" si="6"/>
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="ML106">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="MM106">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="MN106">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="MO106">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="MP106">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="MQ106">
         <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="MR106">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="MS106">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="MT106">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="MU106">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="MV106">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="MW106">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="MX106">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="MY106">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="MZ106">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="NA106">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="NB106">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="NC106">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="ND106">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="NE106">
         <f t="shared" ca="1" si="6"/>
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="NF106">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="NG106">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="NH106">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="NI106">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="NJ106">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="NK106">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="NL106">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="NM106">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="NN106">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="NO106">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="NP106">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="NQ106">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="NR106">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="NS106">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="NT106">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="NU106">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="NV106">
         <f t="shared" ref="NV106:QG106" ca="1" si="7">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="NW106">
         <f t="shared" ca="1" si="7"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="NX106">
         <f t="shared" ca="1" si="7"/>
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="NY106">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="NZ106">
         <f t="shared" ca="1" si="7"/>
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="OA106">
         <f t="shared" ca="1" si="7"/>
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="OB106">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="OC106">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="OD106">
         <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="OE106">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="OF106">
         <f t="shared" ca="1" si="7"/>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="OG106">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="OH106">
         <f t="shared" ca="1" si="7"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="OI106">
         <f t="shared" ca="1" si="7"/>
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="OJ106">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="OK106">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="OL106">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="OM106">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="ON106">
         <f t="shared" ca="1" si="7"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="OO106">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="OP106">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="OQ106">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="OR106">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="OS106">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="OT106">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="OU106">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="OV106">
         <f t="shared" ca="1" si="7"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="OW106">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="OX106">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="OY106">
         <f t="shared" ca="1" si="7"/>
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="OZ106">
         <f t="shared" ca="1" si="7"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="PA106">
         <f t="shared" ca="1" si="7"/>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="PB106">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="PC106">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PD106">
         <f t="shared" ca="1" si="7"/>
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="PE106">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="PF106">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="PG106">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="PH106">
         <f t="shared" ca="1" si="7"/>
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="PI106">
         <f t="shared" ca="1" si="7"/>
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="PJ106">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="PK106">
         <f t="shared" ca="1" si="7"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="PL106">
         <f t="shared" ca="1" si="7"/>
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="PM106">
         <f t="shared" ca="1" si="7"/>
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="PN106">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="PO106">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="PP106">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="PQ106">
         <f t="shared" ca="1" si="7"/>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="PR106">
         <f t="shared" ca="1" si="7"/>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="PS106">
         <f t="shared" ca="1" si="7"/>
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="PT106">
         <f t="shared" ca="1" si="7"/>
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="PU106">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="PV106">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="PW106">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="PX106">
         <f t="shared" ca="1" si="7"/>
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="PY106">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="PZ106">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="QA106">
         <f t="shared" ca="1" si="7"/>
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="QB106">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="QC106">
         <f t="shared" ca="1" si="7"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="QD106">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="QE106">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="QF106">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="QG106">
         <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="QH106">
         <f t="shared" ref="QH106:SS106" ca="1" si="8">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="QI106">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="QJ106">
         <f t="shared" ca="1" si="8"/>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="QK106">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="QL106">
         <f t="shared" ca="1" si="8"/>
@@ -4261,23 +4295,23 @@
       </c>
       <c r="QM106">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="QN106">
         <f t="shared" ca="1" si="8"/>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="QO106">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="QP106">
         <f t="shared" ca="1" si="8"/>
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="QQ106">
         <f t="shared" ca="1" si="8"/>
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="QR106">
         <f t="shared" ca="1" si="8"/>
@@ -4285,159 +4319,159 @@
       </c>
       <c r="QS106">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="QT106">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="QU106">
         <f t="shared" ca="1" si="8"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="QV106">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="QW106">
         <f t="shared" ca="1" si="8"/>
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="QX106">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="QY106">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="QZ106">
         <f t="shared" ca="1" si="8"/>
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="RA106">
         <f t="shared" ca="1" si="8"/>
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="RB106">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="RC106">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="RD106">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="RE106">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="RF106">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="RG106">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="RH106">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="RI106">
         <f t="shared" ca="1" si="8"/>
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="RJ106">
         <f t="shared" ca="1" si="8"/>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="RK106">
         <f t="shared" ca="1" si="8"/>
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="RL106">
         <f t="shared" ca="1" si="8"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="RM106">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="RN106">
         <f t="shared" ca="1" si="8"/>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="RO106">
         <f t="shared" ca="1" si="8"/>
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="RP106">
         <f t="shared" ca="1" si="8"/>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="RQ106">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="RR106">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="RS106">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="RT106">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="RU106">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="RV106">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="RW106">
         <f t="shared" ca="1" si="8"/>
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="RX106">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="RY106">
         <f t="shared" ca="1" si="8"/>
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="RZ106">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="SA106">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="SB106">
         <f t="shared" ca="1" si="8"/>
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="SC106">
         <f t="shared" ca="1" si="8"/>
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="SD106">
         <f t="shared" ca="1" si="8"/>
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="SE106">
         <f t="shared" ca="1" si="8"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="SF106">
         <f t="shared" ca="1" si="8"/>
@@ -4445,555 +4479,555 @@
       </c>
       <c r="SG106">
         <f t="shared" ca="1" si="8"/>
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="SH106">
         <f t="shared" ca="1" si="8"/>
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="SI106">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="SJ106">
         <f t="shared" ca="1" si="8"/>
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="SK106">
         <f t="shared" ca="1" si="8"/>
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="SL106">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="SM106">
         <f t="shared" ca="1" si="8"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="SN106">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="SO106">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="SP106">
         <f t="shared" ca="1" si="8"/>
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="SQ106">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="SR106">
         <f t="shared" ca="1" si="8"/>
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="SS106">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="ST106">
         <f t="shared" ref="ST106:VE106" ca="1" si="9">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="SU106">
         <f t="shared" ca="1" si="9"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="SV106">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="SW106">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="SX106">
         <f t="shared" ca="1" si="9"/>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="SY106">
         <f t="shared" ca="1" si="9"/>
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="SZ106">
         <f t="shared" ca="1" si="9"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="TA106">
         <f t="shared" ca="1" si="9"/>
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="TB106">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="TC106">
         <f t="shared" ca="1" si="9"/>
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="TD106">
         <f t="shared" ca="1" si="9"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="TE106">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="TF106">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="TG106">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="TH106">
         <f t="shared" ca="1" si="9"/>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="TI106">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="TJ106">
         <f t="shared" ca="1" si="9"/>
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="TK106">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="TL106">
         <f t="shared" ca="1" si="9"/>
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="TM106">
         <f t="shared" ca="1" si="9"/>
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="TN106">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="TO106">
         <f t="shared" ca="1" si="9"/>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="TP106">
         <f t="shared" ca="1" si="9"/>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="TQ106">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="TR106">
         <f t="shared" ca="1" si="9"/>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="TS106">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="TT106">
         <f t="shared" ca="1" si="9"/>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="TU106">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="TV106">
         <f t="shared" ca="1" si="9"/>
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="TW106">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="TX106">
         <f t="shared" ca="1" si="9"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="TY106">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="TZ106">
         <f t="shared" ca="1" si="9"/>
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="UA106">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="UB106">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="UC106">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="UD106">
         <f t="shared" ca="1" si="9"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="UE106">
         <f t="shared" ca="1" si="9"/>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="UF106">
         <f t="shared" ca="1" si="9"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="UG106">
         <f t="shared" ca="1" si="9"/>
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="UH106">
         <f t="shared" ca="1" si="9"/>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="UI106">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="UJ106">
         <f t="shared" ca="1" si="9"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="UK106">
         <f t="shared" ca="1" si="9"/>
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="UL106">
         <f t="shared" ca="1" si="9"/>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="UM106">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="UN106">
         <f t="shared" ca="1" si="9"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="UO106">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="UP106">
         <f t="shared" ca="1" si="9"/>
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="UQ106">
         <f t="shared" ca="1" si="9"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="UR106">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="US106">
         <f t="shared" ca="1" si="9"/>
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="UT106">
         <f t="shared" ca="1" si="9"/>
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="UU106">
         <f t="shared" ca="1" si="9"/>
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="UV106">
         <f t="shared" ca="1" si="9"/>
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="UW106">
         <f t="shared" ca="1" si="9"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="UX106">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="UY106">
         <f t="shared" ca="1" si="9"/>
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="UZ106">
         <f t="shared" ca="1" si="9"/>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="VA106">
         <f t="shared" ca="1" si="9"/>
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="VB106">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="VC106">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="VD106">
         <f t="shared" ca="1" si="9"/>
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="VE106">
         <f t="shared" ca="1" si="9"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="VF106">
         <f t="shared" ref="VF106:XQ106" ca="1" si="10">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="VG106">
         <f t="shared" ca="1" si="10"/>
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="VH106">
         <f t="shared" ca="1" si="10"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="VI106">
         <f t="shared" ca="1" si="10"/>
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="VJ106">
         <f t="shared" ca="1" si="10"/>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="VK106">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="VL106">
         <f t="shared" ca="1" si="10"/>
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="VM106">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="VN106">
         <f t="shared" ca="1" si="10"/>
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="VO106">
         <f t="shared" ca="1" si="10"/>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="VP106">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="VQ106">
         <f t="shared" ca="1" si="10"/>
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="VR106">
         <f t="shared" ca="1" si="10"/>
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="VS106">
         <f t="shared" ca="1" si="10"/>
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="VT106">
         <f t="shared" ca="1" si="10"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="VU106">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="VV106">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="VW106">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="VX106">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="VY106">
         <f t="shared" ca="1" si="10"/>
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="VZ106">
         <f t="shared" ca="1" si="10"/>
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="WA106">
         <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="WB106">
         <f t="shared" ca="1" si="10"/>
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="WC106">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="WD106">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="WE106">
         <f t="shared" ca="1" si="10"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="WF106">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WG106">
         <f t="shared" ca="1" si="10"/>
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="WH106">
         <f t="shared" ca="1" si="10"/>
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="WI106">
         <f t="shared" ca="1" si="10"/>
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="WJ106">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="WK106">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="WL106">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="WM106">
         <f t="shared" ca="1" si="10"/>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="WN106">
         <f t="shared" ca="1" si="10"/>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="WO106">
         <f t="shared" ca="1" si="10"/>
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="WP106">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="WQ106">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="WR106">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="WS106">
         <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="WT106">
         <f t="shared" ca="1" si="10"/>
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="WU106">
         <f t="shared" ca="1" si="10"/>
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="WV106">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="WW106">
         <f t="shared" ca="1" si="10"/>
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="WX106">
         <f t="shared" ca="1" si="10"/>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="WY106">
         <f t="shared" ca="1" si="10"/>
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="WZ106">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="XA106">
         <f t="shared" ca="1" si="10"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="XB106">
         <f t="shared" ca="1" si="10"/>
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="XC106">
         <f t="shared" ca="1" si="10"/>
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="XD106">
         <f t="shared" ca="1" si="10"/>
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="XE106">
         <f t="shared" ca="1" si="10"/>
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="XF106">
         <f t="shared" ca="1" si="10"/>
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="XG106">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="XH106">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="XI106">
         <f t="shared" ca="1" si="10"/>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="XJ106">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="XK106">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="XL106">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="XM106">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="XN106">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="XO106">
         <f t="shared" ca="1" si="10"/>
@@ -5001,75 +5035,75 @@
       </c>
       <c r="XP106">
         <f t="shared" ca="1" si="10"/>
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="XQ106">
         <f t="shared" ca="1" si="10"/>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="XR106">
         <f t="shared" ref="XR106:AAC106" ca="1" si="11">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="XS106">
         <f t="shared" ca="1" si="11"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="XT106">
         <f t="shared" ca="1" si="11"/>
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="XU106">
         <f t="shared" ca="1" si="11"/>
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="XV106">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="XW106">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="XX106">
         <f t="shared" ca="1" si="11"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="XY106">
         <f t="shared" ca="1" si="11"/>
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="XZ106">
         <f t="shared" ca="1" si="11"/>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="YA106">
         <f t="shared" ca="1" si="11"/>
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="YB106">
         <f t="shared" ca="1" si="11"/>
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="YC106">
         <f t="shared" ca="1" si="11"/>
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="YD106">
         <f t="shared" ca="1" si="11"/>
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="YE106">
         <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="YF106">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="YG106">
         <f t="shared" ca="1" si="11"/>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="YH106">
         <f t="shared" ca="1" si="11"/>
@@ -5077,423 +5111,423 @@
       </c>
       <c r="YI106">
         <f t="shared" ca="1" si="11"/>
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="YJ106">
         <f t="shared" ca="1" si="11"/>
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="YK106">
         <f t="shared" ca="1" si="11"/>
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="YL106">
         <f t="shared" ca="1" si="11"/>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="YM106">
         <f t="shared" ca="1" si="11"/>
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="YN106">
         <f t="shared" ca="1" si="11"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="YO106">
         <f t="shared" ca="1" si="11"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="YP106">
         <f t="shared" ca="1" si="11"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="YQ106">
         <f t="shared" ca="1" si="11"/>
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="YR106">
         <f t="shared" ca="1" si="11"/>
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="YS106">
         <f t="shared" ca="1" si="11"/>
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="YT106">
         <f t="shared" ca="1" si="11"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="YU106">
         <f t="shared" ca="1" si="11"/>
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="YV106">
         <f t="shared" ca="1" si="11"/>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="YW106">
         <f t="shared" ca="1" si="11"/>
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="YX106">
         <f t="shared" ca="1" si="11"/>
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="YY106">
         <f t="shared" ca="1" si="11"/>
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="YZ106">
         <f t="shared" ca="1" si="11"/>
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="ZA106">
         <f t="shared" ca="1" si="11"/>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="ZB106">
         <f t="shared" ca="1" si="11"/>
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="ZC106">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="ZD106">
         <f t="shared" ca="1" si="11"/>
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="ZE106">
         <f t="shared" ca="1" si="11"/>
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="ZF106">
         <f t="shared" ca="1" si="11"/>
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="ZG106">
         <f t="shared" ca="1" si="11"/>
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="ZH106">
         <f t="shared" ca="1" si="11"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="ZI106">
         <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="ZJ106">
         <f t="shared" ca="1" si="11"/>
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="ZK106">
         <f t="shared" ca="1" si="11"/>
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="ZL106">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="ZM106">
         <f t="shared" ca="1" si="11"/>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="ZN106">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="ZO106">
         <f t="shared" ca="1" si="11"/>
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="ZP106">
         <f t="shared" ca="1" si="11"/>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="ZQ106">
         <f t="shared" ca="1" si="11"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="ZR106">
         <f t="shared" ca="1" si="11"/>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="ZS106">
         <f t="shared" ca="1" si="11"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="ZT106">
         <f t="shared" ca="1" si="11"/>
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="ZU106">
         <f t="shared" ca="1" si="11"/>
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="ZV106">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="ZW106">
         <f t="shared" ca="1" si="11"/>
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="ZX106">
         <f t="shared" ca="1" si="11"/>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="ZY106">
         <f t="shared" ca="1" si="11"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="ZZ106">
         <f t="shared" ca="1" si="11"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AAA106">
         <f t="shared" ca="1" si="11"/>
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="AAB106">
         <f t="shared" ca="1" si="11"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AAC106">
         <f t="shared" ca="1" si="11"/>
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="AAD106">
         <f t="shared" ref="AAD106:ACO106" ca="1" si="12">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="AAE106">
         <f t="shared" ca="1" si="12"/>
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="AAF106">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AAG106">
         <f t="shared" ca="1" si="12"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AAH106">
         <f t="shared" ca="1" si="12"/>
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AAI106">
         <f t="shared" ca="1" si="12"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AAJ106">
         <f t="shared" ca="1" si="12"/>
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AAK106">
         <f t="shared" ca="1" si="12"/>
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="AAL106">
         <f t="shared" ca="1" si="12"/>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AAM106">
         <f t="shared" ca="1" si="12"/>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AAN106">
         <f t="shared" ca="1" si="12"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AAO106">
         <f t="shared" ca="1" si="12"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AAP106">
         <f t="shared" ca="1" si="12"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AAQ106">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AAR106">
         <f t="shared" ca="1" si="12"/>
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="AAS106">
         <f t="shared" ca="1" si="12"/>
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="AAT106">
         <f t="shared" ca="1" si="12"/>
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="AAU106">
         <f t="shared" ca="1" si="12"/>
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="AAV106">
         <f t="shared" ca="1" si="12"/>
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="AAW106">
         <f t="shared" ca="1" si="12"/>
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AAX106">
         <f t="shared" ca="1" si="12"/>
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AAY106">
         <f t="shared" ca="1" si="12"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AAZ106">
         <f t="shared" ca="1" si="12"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="ABA106">
         <f t="shared" ca="1" si="12"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="ABB106">
         <f t="shared" ca="1" si="12"/>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="ABC106">
         <f t="shared" ca="1" si="12"/>
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="ABD106">
         <f t="shared" ca="1" si="12"/>
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="ABE106">
         <f t="shared" ca="1" si="12"/>
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="ABF106">
         <f t="shared" ca="1" si="12"/>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="ABG106">
         <f t="shared" ca="1" si="12"/>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="ABH106">
         <f t="shared" ca="1" si="12"/>
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="ABI106">
         <f t="shared" ca="1" si="12"/>
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="ABJ106">
         <f t="shared" ca="1" si="12"/>
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="ABK106">
         <f t="shared" ca="1" si="12"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="ABL106">
         <f t="shared" ca="1" si="12"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="ABM106">
         <f t="shared" ca="1" si="12"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="ABN106">
         <f t="shared" ca="1" si="12"/>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="ABO106">
         <f t="shared" ca="1" si="12"/>
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="ABP106">
         <f t="shared" ca="1" si="12"/>
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="ABQ106">
         <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="ABR106">
         <f t="shared" ca="1" si="12"/>
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="ABS106">
         <f t="shared" ca="1" si="12"/>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="ABT106">
         <f t="shared" ca="1" si="12"/>
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="ABU106">
         <f t="shared" ca="1" si="12"/>
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="ABV106">
         <f t="shared" ca="1" si="12"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="ABW106">
         <f t="shared" ca="1" si="12"/>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="ABX106">
         <f t="shared" ca="1" si="12"/>
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="ABY106">
         <f t="shared" ca="1" si="12"/>
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="ABZ106">
         <f t="shared" ca="1" si="12"/>
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="ACA106">
         <f t="shared" ca="1" si="12"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="ACB106">
         <f t="shared" ca="1" si="12"/>
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="ACC106">
         <f t="shared" ca="1" si="12"/>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="ACD106">
         <f t="shared" ca="1" si="12"/>
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="ACE106">
         <f t="shared" ca="1" si="12"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="ACF106">
         <f t="shared" ca="1" si="12"/>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="ACG106">
         <f t="shared" ca="1" si="12"/>
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="ACH106">
         <f t="shared" ca="1" si="12"/>
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="ACI106">
         <f t="shared" ca="1" si="12"/>
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="ACJ106">
         <f t="shared" ca="1" si="12"/>
@@ -5501,131 +5535,131 @@
       </c>
       <c r="ACK106">
         <f t="shared" ca="1" si="12"/>
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="ACL106">
         <f t="shared" ca="1" si="12"/>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="ACM106">
         <f t="shared" ca="1" si="12"/>
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="ACN106">
         <f t="shared" ca="1" si="12"/>
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="ACO106">
         <f t="shared" ca="1" si="12"/>
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="ACP106">
         <f t="shared" ref="ACP106:AFA106" ca="1" si="13">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="ACQ106">
         <f t="shared" ca="1" si="13"/>
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="ACR106">
         <f t="shared" ca="1" si="13"/>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="ACS106">
         <f t="shared" ca="1" si="13"/>
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="ACT106">
         <f t="shared" ca="1" si="13"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="ACU106">
         <f t="shared" ca="1" si="13"/>
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="ACV106">
         <f t="shared" ca="1" si="13"/>
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="ACW106">
         <f t="shared" ca="1" si="13"/>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="ACX106">
         <f t="shared" ca="1" si="13"/>
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="ACY106">
         <f t="shared" ca="1" si="13"/>
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="ACZ106">
         <f t="shared" ca="1" si="13"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="ADA106">
         <f t="shared" ca="1" si="13"/>
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="ADB106">
         <f t="shared" ca="1" si="13"/>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="ADC106">
         <f t="shared" ca="1" si="13"/>
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="ADD106">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="ADE106">
         <f t="shared" ca="1" si="13"/>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="ADF106">
         <f t="shared" ca="1" si="13"/>
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="ADG106">
         <f t="shared" ca="1" si="13"/>
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="ADH106">
         <f t="shared" ca="1" si="13"/>
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="ADI106">
         <f t="shared" ca="1" si="13"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="ADJ106">
         <f t="shared" ca="1" si="13"/>
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="ADK106">
         <f t="shared" ca="1" si="13"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="ADL106">
         <f t="shared" ca="1" si="13"/>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="ADM106">
         <f t="shared" ca="1" si="13"/>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="ADN106">
         <f t="shared" ca="1" si="13"/>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="ADO106">
         <f t="shared" ca="1" si="13"/>
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="ADP106">
         <f t="shared" ca="1" si="13"/>
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="ADQ106">
         <f t="shared" ca="1" si="13"/>
@@ -5633,367 +5667,367 @@
       </c>
       <c r="ADR106">
         <f t="shared" ca="1" si="13"/>
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="ADS106">
         <f t="shared" ca="1" si="13"/>
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="ADT106">
         <f t="shared" ca="1" si="13"/>
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="ADU106">
         <f t="shared" ca="1" si="13"/>
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="ADV106">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="ADW106">
         <f t="shared" ca="1" si="13"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="ADX106">
         <f t="shared" ca="1" si="13"/>
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="ADY106">
         <f t="shared" ca="1" si="13"/>
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="ADZ106">
         <f t="shared" ca="1" si="13"/>
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="AEA106">
         <f t="shared" ca="1" si="13"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AEB106">
         <f t="shared" ca="1" si="13"/>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="AEC106">
         <f t="shared" ca="1" si="13"/>
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AED106">
         <f t="shared" ca="1" si="13"/>
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="AEE106">
         <f t="shared" ca="1" si="13"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AEF106">
         <f t="shared" ca="1" si="13"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AEG106">
         <f t="shared" ca="1" si="13"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AEH106">
         <f t="shared" ca="1" si="13"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AEI106">
         <f t="shared" ca="1" si="13"/>
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="AEJ106">
         <f t="shared" ca="1" si="13"/>
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AEK106">
         <f t="shared" ca="1" si="13"/>
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="AEL106">
         <f t="shared" ca="1" si="13"/>
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="AEM106">
         <f t="shared" ca="1" si="13"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AEN106">
         <f t="shared" ca="1" si="13"/>
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="AEO106">
         <f t="shared" ca="1" si="13"/>
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AEP106">
         <f t="shared" ca="1" si="13"/>
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="AEQ106">
         <f t="shared" ca="1" si="13"/>
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AER106">
         <f t="shared" ca="1" si="13"/>
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="AES106">
         <f t="shared" ca="1" si="13"/>
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="AET106">
         <f t="shared" ca="1" si="13"/>
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AEU106">
         <f t="shared" ca="1" si="13"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AEV106">
         <f t="shared" ca="1" si="13"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AEW106">
         <f t="shared" ca="1" si="13"/>
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="AEX106">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="AEY106">
         <f t="shared" ca="1" si="13"/>
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="AEZ106">
         <f t="shared" ca="1" si="13"/>
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="AFA106">
         <f t="shared" ca="1" si="13"/>
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="AFB106">
         <f t="shared" ref="AFB106:AHM106" ca="1" si="14">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AFC106">
         <f t="shared" ca="1" si="14"/>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AFD106">
         <f t="shared" ca="1" si="14"/>
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="AFE106">
         <f t="shared" ca="1" si="14"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AFF106">
         <f t="shared" ca="1" si="14"/>
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="AFG106">
         <f t="shared" ca="1" si="14"/>
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AFH106">
         <f t="shared" ca="1" si="14"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AFI106">
         <f t="shared" ca="1" si="14"/>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AFJ106">
         <f t="shared" ca="1" si="14"/>
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="AFK106">
         <f t="shared" ca="1" si="14"/>
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="AFL106">
         <f t="shared" ca="1" si="14"/>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AFM106">
         <f t="shared" ca="1" si="14"/>
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AFN106">
         <f t="shared" ca="1" si="14"/>
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="AFO106">
         <f t="shared" ca="1" si="14"/>
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AFP106">
         <f t="shared" ca="1" si="14"/>
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AFQ106">
         <f t="shared" ca="1" si="14"/>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AFR106">
         <f t="shared" ca="1" si="14"/>
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AFS106">
         <f t="shared" ca="1" si="14"/>
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="AFT106">
         <f t="shared" ca="1" si="14"/>
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="AFU106">
         <f t="shared" ca="1" si="14"/>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AFV106">
         <f t="shared" ca="1" si="14"/>
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="AFW106">
         <f t="shared" ca="1" si="14"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AFX106">
         <f t="shared" ca="1" si="14"/>
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="AFY106">
         <f t="shared" ca="1" si="14"/>
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="AFZ106">
         <f t="shared" ca="1" si="14"/>
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="AGA106">
         <f t="shared" ca="1" si="14"/>
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AGB106">
         <f t="shared" ca="1" si="14"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="AGC106">
         <f t="shared" ca="1" si="14"/>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AGD106">
         <f t="shared" ca="1" si="14"/>
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="AGE106">
         <f t="shared" ca="1" si="14"/>
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="AGF106">
         <f t="shared" ca="1" si="14"/>
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="AGG106">
         <f t="shared" ca="1" si="14"/>
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="AGH106">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AGI106">
         <f t="shared" ca="1" si="14"/>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AGJ106">
         <f t="shared" ca="1" si="14"/>
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="AGK106">
         <f t="shared" ca="1" si="14"/>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AGL106">
         <f t="shared" ca="1" si="14"/>
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="AGM106">
         <f t="shared" ca="1" si="14"/>
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="AGN106">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AGO106">
         <f t="shared" ca="1" si="14"/>
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="AGP106">
         <f t="shared" ca="1" si="14"/>
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="AGQ106">
         <f t="shared" ca="1" si="14"/>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AGR106">
         <f t="shared" ca="1" si="14"/>
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="AGS106">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="AGT106">
         <f t="shared" ca="1" si="14"/>
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AGU106">
         <f t="shared" ca="1" si="14"/>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AGV106">
         <f t="shared" ca="1" si="14"/>
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="AGW106">
         <f t="shared" ca="1" si="14"/>
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="AGX106">
         <f t="shared" ca="1" si="14"/>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="AGY106">
         <f t="shared" ca="1" si="14"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AGZ106">
         <f t="shared" ca="1" si="14"/>
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="AHA106">
         <f t="shared" ca="1" si="14"/>
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AHB106">
         <f t="shared" ca="1" si="14"/>
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AHC106">
         <f t="shared" ca="1" si="14"/>
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="AHD106">
         <f t="shared" ca="1" si="14"/>
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="AHE106">
         <f t="shared" ca="1" si="14"/>
@@ -6001,91 +6035,91 @@
       </c>
       <c r="AHF106">
         <f t="shared" ca="1" si="14"/>
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="AHG106">
         <f t="shared" ca="1" si="14"/>
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AHH106">
         <f t="shared" ca="1" si="14"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AHI106">
         <f t="shared" ca="1" si="14"/>
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AHJ106">
         <f t="shared" ca="1" si="14"/>
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="AHK106">
         <f t="shared" ca="1" si="14"/>
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AHL106">
         <f t="shared" ca="1" si="14"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AHM106">
         <f t="shared" ca="1" si="14"/>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AHN106">
         <f t="shared" ref="AHN106:AJY106" ca="1" si="15">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="AHO106">
         <f t="shared" ca="1" si="15"/>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="AHP106">
         <f t="shared" ca="1" si="15"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AHQ106">
         <f t="shared" ca="1" si="15"/>
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="AHR106">
         <f t="shared" ca="1" si="15"/>
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AHS106">
         <f t="shared" ca="1" si="15"/>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="AHT106">
         <f t="shared" ca="1" si="15"/>
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AHU106">
         <f t="shared" ca="1" si="15"/>
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="AHV106">
         <f t="shared" ca="1" si="15"/>
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="AHW106">
         <f t="shared" ca="1" si="15"/>
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AHX106">
         <f t="shared" ca="1" si="15"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AHY106">
         <f t="shared" ca="1" si="15"/>
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AHZ106">
         <f t="shared" ca="1" si="15"/>
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="AIA106">
         <f t="shared" ca="1" si="15"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AIB106">
         <f t="shared" ca="1" si="15"/>
@@ -6093,51 +6127,51 @@
       </c>
       <c r="AIC106">
         <f t="shared" ca="1" si="15"/>
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AID106">
         <f t="shared" ca="1" si="15"/>
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="AIE106">
         <f t="shared" ca="1" si="15"/>
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AIF106">
         <f t="shared" ca="1" si="15"/>
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="AIG106">
         <f t="shared" ca="1" si="15"/>
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="AIH106">
         <f t="shared" ca="1" si="15"/>
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AII106">
         <f t="shared" ca="1" si="15"/>
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="AIJ106">
         <f t="shared" ca="1" si="15"/>
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="AIK106">
         <f t="shared" ca="1" si="15"/>
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AIL106">
         <f t="shared" ca="1" si="15"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AIM106">
         <f t="shared" ca="1" si="15"/>
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="AIN106">
         <f t="shared" ca="1" si="15"/>
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="AIO106">
         <f t="shared" ca="1" si="15"/>
@@ -6145,263 +6179,263 @@
       </c>
       <c r="AIP106">
         <f t="shared" ca="1" si="15"/>
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="AIQ106">
         <f t="shared" ca="1" si="15"/>
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AIR106">
         <f t="shared" ca="1" si="15"/>
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AIS106">
         <f t="shared" ca="1" si="15"/>
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="AIT106">
         <f t="shared" ca="1" si="15"/>
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AIU106">
         <f t="shared" ca="1" si="15"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AIV106">
         <f t="shared" ca="1" si="15"/>
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AIW106">
         <f t="shared" ca="1" si="15"/>
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AIX106">
         <f t="shared" ca="1" si="15"/>
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="AIY106">
         <f t="shared" ca="1" si="15"/>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AIZ106">
         <f t="shared" ca="1" si="15"/>
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="AJA106">
         <f t="shared" ca="1" si="15"/>
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="AJB106">
         <f t="shared" ca="1" si="15"/>
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AJC106">
         <f t="shared" ca="1" si="15"/>
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="AJD106">
         <f t="shared" ca="1" si="15"/>
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AJE106">
         <f t="shared" ca="1" si="15"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AJF106">
         <f t="shared" ca="1" si="15"/>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AJG106">
         <f t="shared" ca="1" si="15"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AJH106">
         <f t="shared" ca="1" si="15"/>
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="AJI106">
         <f t="shared" ca="1" si="15"/>
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="AJJ106">
         <f t="shared" ca="1" si="15"/>
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AJK106">
         <f t="shared" ca="1" si="15"/>
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="AJL106">
         <f t="shared" ca="1" si="15"/>
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AJM106">
         <f t="shared" ca="1" si="15"/>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="AJN106">
         <f t="shared" ca="1" si="15"/>
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AJO106">
         <f t="shared" ca="1" si="15"/>
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="AJP106">
         <f t="shared" ca="1" si="15"/>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AJQ106">
         <f t="shared" ca="1" si="15"/>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="AJR106">
         <f t="shared" ca="1" si="15"/>
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AJS106">
         <f t="shared" ca="1" si="15"/>
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="AJT106">
         <f t="shared" ca="1" si="15"/>
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AJU106">
         <f t="shared" ca="1" si="15"/>
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AJV106">
         <f t="shared" ca="1" si="15"/>
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="AJW106">
         <f t="shared" ca="1" si="15"/>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="AJX106">
         <f t="shared" ca="1" si="15"/>
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="AJY106">
         <f t="shared" ca="1" si="15"/>
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AJZ106">
         <f t="shared" ref="AJZ106:ALL106" ca="1" si="16">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AKA106">
         <f t="shared" ca="1" si="16"/>
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="AKB106">
         <f t="shared" ca="1" si="16"/>
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AKC106">
         <f t="shared" ca="1" si="16"/>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AKD106">
         <f t="shared" ca="1" si="16"/>
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="AKE106">
         <f t="shared" ca="1" si="16"/>
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="AKF106">
         <f t="shared" ca="1" si="16"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AKG106">
         <f t="shared" ca="1" si="16"/>
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AKH106">
         <f t="shared" ca="1" si="16"/>
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="AKI106">
         <f t="shared" ca="1" si="16"/>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="AKJ106">
         <f t="shared" ca="1" si="16"/>
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="AKK106">
         <f t="shared" ca="1" si="16"/>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AKL106">
         <f t="shared" ca="1" si="16"/>
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="AKM106">
         <f t="shared" ca="1" si="16"/>
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="AKN106">
         <f t="shared" ca="1" si="16"/>
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AKO106">
         <f t="shared" ca="1" si="16"/>
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="AKP106">
         <f t="shared" ca="1" si="16"/>
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="AKQ106">
         <f t="shared" ca="1" si="16"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AKR106">
         <f t="shared" ca="1" si="16"/>
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="AKS106">
         <f t="shared" ca="1" si="16"/>
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AKT106">
         <f t="shared" ca="1" si="16"/>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AKU106">
         <f t="shared" ca="1" si="16"/>
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="AKV106">
         <f t="shared" ca="1" si="16"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AKW106">
         <f t="shared" ca="1" si="16"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AKX106">
         <f t="shared" ca="1" si="16"/>
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="AKY106">
         <f t="shared" ca="1" si="16"/>
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="AKZ106">
         <f t="shared" ca="1" si="16"/>
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="ALA106">
         <f t="shared" ca="1" si="16"/>
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="ALB106">
         <f t="shared" ca="1" si="16"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="ALC106">
         <f t="shared" ca="1" si="16"/>
@@ -6409,59 +6443,59 @@
       </c>
       <c r="ALD106">
         <f t="shared" ca="1" si="16"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="ALE106">
         <f t="shared" ca="1" si="16"/>
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="ALF106">
         <f t="shared" ca="1" si="16"/>
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="ALG106">
         <f t="shared" ca="1" si="16"/>
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="ALH106">
         <f t="shared" ca="1" si="16"/>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="ALI106">
         <f t="shared" ca="1" si="16"/>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="ALJ106">
         <f t="shared" ca="1" si="16"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="ALK106">
         <f t="shared" ca="1" si="16"/>
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="ALL106">
         <f t="shared" ca="1" si="16"/>
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107" spans="1:1000">
       <c r="A107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" spans="1:1000">
       <c r="A108" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:1000">
       <c r="A109" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112" spans="1:1000">
       <c r="A112" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -6469,7 +6503,7 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -6534,42 +6568,42 @@
     </row>
     <row r="124" spans="1:3">
       <c r="C124" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="B131" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="B132" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="B133" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -6577,7 +6611,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -6588,7 +6622,7 @@
         <v>11</v>
       </c>
       <c r="C136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -6601,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -6614,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -6627,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -6640,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -6653,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -6666,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -6679,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -6692,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -6705,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -6718,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -6731,32 +6765,32 @@
         <v>0</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="B148" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="C149" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -6764,10 +6798,10 @@
         <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C155" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -6775,7 +6809,7 @@
         <v>10</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -6783,7 +6817,7 @@
         <v>20</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -6791,7 +6825,7 @@
         <v>30</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -6835,12 +6869,12 @@
         <v>100</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -6848,13 +6882,13 @@
         <v>11</v>
       </c>
       <c r="B171" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C171" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D171" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6862,7 +6896,7 @@
         <v>10</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6870,7 +6904,7 @@
         <v>20</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6920,17 +6954,17 @@
         <v>100</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -6938,13 +6972,13 @@
         <v>11</v>
       </c>
       <c r="B201" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C201" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D201" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -6999,15 +7033,15 @@
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I216" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
